--- a/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t>bảo trân</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,10 +495,8 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0865927791</t>
-        </is>
+      <c r="F2" t="n">
+        <v/>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -507,10 +505,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>22000000</v>
+        <v>2000000</v>
       </c>
       <c r="J2" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +518,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>lâm thuỳ dương</t>
+          <t xml:space="preserve">trương thị lan </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0383465843</t>
+          <t>0824445443</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,7 +545,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>13000000</v>
+        <v>18000000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,11 +558,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>đường thị út</t>
+          <t>thạch thị sơ ri</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +575,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0949407389</t>
+          <t>034925472</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,7 +585,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>7000000</v>
+        <v>35000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -600,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+          <t xml:space="preserve">trần thị ngọc bích </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,7 +615,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0939925920</t>
+          <t>0777999926</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,7 +625,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>20000000</v>
+        <v>15000000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -640,11 +638,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>diệp thị mỹ hiền</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,7 +655,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0969540359</t>
+          <t>0865927791</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -667,10 +665,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>1500000</v>
+        <v>22000000</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="7">
@@ -680,11 +678,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>đặng thị mỹ ngọc</t>
+          <t>lâm thuỳ dương</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -697,7 +695,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0392273827</t>
+          <t>0383465843</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -707,7 +705,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>1500000</v>
+        <v>13000000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -720,11 +718,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>đường thị út</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -737,7 +735,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0949407389</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -747,7 +745,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>1600000</v>
+        <v>7000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -760,11 +758,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -777,7 +775,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0939925920</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -787,7 +785,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>1300000</v>
+        <v>20000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -800,11 +798,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t>diệp thị mỹ hiền</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -817,7 +815,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>0969540359</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -827,7 +825,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>13000000</v>
+        <v>1500000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -840,11 +838,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>đặng thị mỹ ngọc</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -857,7 +855,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0392273827</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -867,10 +865,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>25000000</v>
+        <v>1500000</v>
       </c>
       <c r="J11" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -880,11 +878,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -895,8 +893,10 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
-        <v/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0347738370</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -905,10 +905,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>15000000</v>
+        <v>1600000</v>
       </c>
       <c r="J12" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -918,11 +918,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0983432263</t>
+          <t>077721995</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -945,7 +945,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>1200000</v>
+        <v>1300000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -958,11 +958,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>0917250314</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -985,7 +985,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>1000000</v>
+        <v>13000000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -998,11 +998,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0786070121</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1025,10 +1025,10 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>688000</v>
+        <v>25000000</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="16">
@@ -1038,11 +1038,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1063,10 +1063,10 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="J16" t="n">
-        <v>3000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="17">
@@ -1076,11 +1076,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1091,8 +1091,10 @@
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="n">
-        <v/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0983432263</t>
+        </is>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -1101,7 +1103,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1114,11 +1116,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1129,8 +1131,10 @@
       <c r="E18" t="n">
         <v/>
       </c>
-      <c r="F18" t="n">
-        <v/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0908179083</t>
+        </is>
       </c>
       <c r="G18" t="n">
         <v/>
@@ -1139,7 +1143,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1152,11 +1156,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1167,8 +1171,10 @@
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="n">
-        <v/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1177,7 +1183,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>16500000</v>
+        <v>688000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1190,11 +1196,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1215,10 +1221,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>21500000</v>
+        <v>4000000</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="21">
@@ -1228,11 +1234,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1243,10 +1249,8 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F21" t="n">
+        <v/>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1255,7 +1259,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>25000000</v>
+        <v>800000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1268,11 +1272,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1283,10 +1287,8 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0337594599</t>
-        </is>
+      <c r="F22" t="n">
+        <v/>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1295,7 +1297,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>20000000</v>
+        <v>3000000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1308,11 +1310,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1333,10 +1335,10 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>2850000</v>
+        <v>16500000</v>
       </c>
       <c r="J23" t="n">
-        <v>5600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1346,11 +1348,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1361,10 +1363,8 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F24" t="n">
+        <v/>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1373,10 +1373,10 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>10000000</v>
+        <v>21500000</v>
       </c>
       <c r="J24" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1386,11 +1386,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1401,8 +1401,10 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="n">
-        <v/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0969134464</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1411,10 +1413,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>22000000</v>
+        <v>25000000</v>
       </c>
       <c r="J25" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1424,11 +1426,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1441,7 +1443,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0337594599</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1451,7 +1453,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>8000000</v>
+        <v>20000000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1464,11 +1466,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1479,10 +1481,8 @@
       <c r="E27" t="n">
         <v/>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F27" t="n">
+        <v/>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -1491,10 +1491,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>5000000</v>
+        <v>2850000</v>
       </c>
       <c r="J27" t="n">
-        <v>2000000</v>
+        <v>5600000</v>
       </c>
     </row>
     <row r="28">
@@ -1504,11 +1504,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1519,8 +1519,10 @@
       <c r="E28" t="n">
         <v/>
       </c>
-      <c r="F28" t="n">
-        <v/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1529,10 +1531,10 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>600000</v>
+        <v>10000000</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="29">
@@ -1542,11 +1544,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1567,10 +1569,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>22000000</v>
       </c>
       <c r="J29" t="n">
-        <v>7000000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="30">
@@ -1580,11 +1582,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1595,8 +1597,10 @@
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="n">
-        <v/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1605,10 +1609,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="J30" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1618,11 +1622,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1633,8 +1637,10 @@
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="n">
-        <v/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1643,10 +1649,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J31" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="32">
@@ -1656,11 +1662,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1681,10 +1687,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="J32" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1694,11 +1700,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1722,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7900000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="34">
@@ -1732,11 +1738,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1760,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16500000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="35">
@@ -1770,11 +1776,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1785,10 +1791,8 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F35" t="n">
+        <v/>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1797,10 +1801,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>32000000</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="36">
@@ -1810,11 +1814,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1825,10 +1829,8 @@
       <c r="E36" t="n">
         <v/>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>037642542</t>
-        </is>
+      <c r="F36" t="n">
+        <v/>
       </c>
       <c r="G36" t="n">
         <v/>
@@ -1837,10 +1839,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>1400000</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="37">
@@ -1850,11 +1852,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1865,10 +1867,8 @@
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0359390825</t>
-        </is>
+      <c r="F37" t="n">
+        <v/>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1877,10 +1877,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>7900000</v>
       </c>
     </row>
     <row r="38">
@@ -1890,11 +1890,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1905,10 +1905,8 @@
       <c r="E38" t="n">
         <v/>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0384362705</t>
-        </is>
+      <c r="F38" t="n">
+        <v/>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1917,10 +1915,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>30500000</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="39">
@@ -1930,11 +1928,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1947,19 +1945,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0909903397</t>
+          <t>0967039154</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v/>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H39" t="n">
+        <v/>
       </c>
       <c r="I39" t="n">
-        <v>8000000</v>
+        <v>32000000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1972,11 +1968,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1987,8 +1983,10 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="n">
-        <v/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>037642542</t>
+        </is>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -1997,7 +1995,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>2000000</v>
+        <v>1400000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2010,11 +2008,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2025,8 +2023,10 @@
       <c r="E41" t="n">
         <v/>
       </c>
-      <c r="F41" t="n">
-        <v/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0359390825</t>
+        </is>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -2035,10 +2035,10 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="J41" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2048,11 +2048,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2063,8 +2063,10 @@
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="n">
-        <v/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0384362705</t>
+        </is>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -2073,7 +2075,7 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>40000000</v>
+        <v>30500000</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2086,11 +2088,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2101,17 +2103,21 @@
       <c r="E43" t="n">
         <v/>
       </c>
-      <c r="F43" t="n">
-        <v/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0909903397</t>
+        </is>
       </c>
       <c r="G43" t="n">
         <v/>
       </c>
-      <c r="H43" t="n">
-        <v/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
       <c r="I43" t="n">
-        <v>1500000</v>
+        <v>8000000</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2124,11 +2130,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2152,7 +2158,7 @@
         <v>2000000</v>
       </c>
       <c r="J44" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2162,11 +2168,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2187,10 +2193,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>3200000</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="46">
@@ -2200,11 +2206,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2225,7 +2231,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>2000000</v>
+        <v>40000000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2238,11 +2244,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2263,7 +2269,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>34000000</v>
+        <v>1500000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2276,11 +2282,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2301,10 +2307,10 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>4400000</v>
+        <v>2000000</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="49">
@@ -2314,11 +2320,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2339,10 +2345,10 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>3200000</v>
       </c>
       <c r="J49" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2352,11 +2358,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2377,7 +2383,7 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2390,11 +2396,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2415,7 +2421,7 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>900000</v>
+        <v>34000000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2428,11 +2434,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2453,7 +2459,7 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>3000000</v>
+        <v>4400000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2466,11 +2472,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2481,10 +2487,8 @@
       <c r="E53" t="n">
         <v/>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F53" t="n">
+        <v/>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -2493,7 +2497,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
         <v>5000000</v>
@@ -2506,11 +2510,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2531,10 +2535,10 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>5000000</v>
+        <v>1600000</v>
       </c>
       <c r="J54" t="n">
-        <v>3386000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2544,11 +2548,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2569,7 +2573,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>7000000</v>
+        <v>900000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2582,11 +2586,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2597,10 +2601,8 @@
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F56" t="n">
+        <v/>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2609,10 +2611,10 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="J56" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2622,11 +2624,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2639,7 +2641,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0848708885</t>
+          <t>0369473448</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2649,10 +2651,10 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="58">
@@ -2662,11 +2664,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2687,10 +2689,10 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J58" t="n">
-        <v>25000000</v>
+        <v>3386000</v>
       </c>
     </row>
     <row r="59">
@@ -2700,11 +2702,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2715,10 +2717,8 @@
       <c r="E59" t="n">
         <v/>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0964945901</t>
-        </is>
+      <c r="F59" t="n">
+        <v/>
       </c>
       <c r="G59" t="n">
         <v/>
@@ -2727,7 +2727,7 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>25000000</v>
+        <v>7000000</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2740,11 +2740,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0326608620</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2767,10 +2767,10 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="61">
@@ -2780,11 +2780,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2807,7 +2807,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2820,11 +2820,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2835,10 +2835,8 @@
       <c r="E62" t="n">
         <v/>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0365658917</t>
-        </is>
+      <c r="F62" t="n">
+        <v/>
       </c>
       <c r="G62" t="n">
         <v/>
@@ -2847,10 +2845,10 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>3900000</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="63">
@@ -2860,11 +2858,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2873,11 +2871,11 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2890,7 +2888,7 @@
         <v>25000000</v>
       </c>
       <c r="J63" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2900,11 +2898,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2913,23 +2911,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>94197013583</v>
+        <v/>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G64" t="n">
         <v/>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H64" t="n">
+        <v/>
       </c>
       <c r="I64" t="n">
-        <v>5000000</v>
+        <v>30000000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2942,11 +2938,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2959,7 +2955,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -2969,7 +2965,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>3700000</v>
+        <v>7000000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -2982,11 +2978,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2997,8 +2993,10 @@
       <c r="E66" t="n">
         <v/>
       </c>
-      <c r="F66" t="n">
-        <v/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0365658917</t>
+        </is>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -3007,7 +3005,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>2000000</v>
+        <v>3900000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3020,11 +3018,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3033,10 +3031,12 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v/>
-      </c>
-      <c r="F67" t="n">
-        <v/>
+        <v>9417002720</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0374112377</t>
+        </is>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -3048,7 +3048,7 @@
         <v>25000000</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="68">
@@ -3058,11 +3058,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3071,24 +3071,26 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v/>
+        <v>94197013583</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0977825701</t>
         </is>
       </c>
       <c r="G68" t="n">
         <v/>
       </c>
-      <c r="H68" t="n">
-        <v/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
       <c r="I68" t="n">
         <v>5000000</v>
       </c>
       <c r="J68" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3098,11 +3100,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3113,8 +3115,10 @@
       <c r="E69" t="n">
         <v/>
       </c>
-      <c r="F69" t="n">
-        <v/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0376680568</t>
+        </is>
       </c>
       <c r="G69" t="n">
         <v/>
@@ -3123,7 +3127,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>2000000</v>
+        <v>3700000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3136,11 +3140,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3161,7 +3165,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3174,11 +3178,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3199,7 +3203,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>45000000</v>
+        <v>25000000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3212,11 +3216,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3227,8 +3231,10 @@
       <c r="E72" t="n">
         <v/>
       </c>
-      <c r="F72" t="n">
-        <v/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -3237,10 +3243,10 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="J72" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="73">
@@ -3250,11 +3256,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3275,7 +3281,7 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3288,11 +3294,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3313,7 +3319,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>25000000</v>
+        <v>3000000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3326,11 +3332,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3351,7 +3357,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>4000000</v>
+        <v>45000000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3364,11 +3370,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3402,11 +3408,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3427,7 +3433,7 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>50000000</v>
+        <v>25000000</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3440,11 +3446,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3455,10 +3461,8 @@
       <c r="E78" t="n">
         <v/>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F78" t="n">
+        <v/>
       </c>
       <c r="G78" t="n">
         <v/>
@@ -3467,10 +3471,10 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>85000000</v>
+        <v>25000000</v>
       </c>
       <c r="J78" t="n">
-        <v>30000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3480,11 +3484,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3505,7 +3509,7 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>70000000</v>
+        <v>4000000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3518,11 +3522,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3543,10 +3547,10 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="J80" t="n">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="81">
@@ -3556,11 +3560,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3581,7 +3585,7 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>1000000</v>
+        <v>50000000</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3594,11 +3598,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3609,8 +3613,10 @@
       <c r="E82" t="n">
         <v/>
       </c>
-      <c r="F82" t="n">
-        <v/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -3619,10 +3625,10 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>1500000</v>
+        <v>85000000</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="83">
@@ -3632,11 +3638,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3657,10 +3663,10 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>10000000</v>
+        <v>70000000</v>
       </c>
       <c r="J83" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3670,11 +3676,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3695,10 +3701,10 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>18900000</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>7200000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="85">
@@ -3708,11 +3714,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3733,7 +3739,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>13000000</v>
+        <v>1000000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3746,11 +3752,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3771,10 +3777,10 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J86" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3784,11 +3790,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3809,10 +3815,10 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J87" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="88">
@@ -3822,11 +3828,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3847,10 +3853,10 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>2000000</v>
+        <v>18900000</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>7200000</v>
       </c>
     </row>
     <row r="89">
@@ -3860,11 +3866,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3885,7 +3891,7 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>7000000</v>
+        <v>13000000</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3898,11 +3904,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3923,10 +3929,10 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>63000000</v>
+        <v>10000000</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="91">
@@ -3936,11 +3942,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3961,10 +3967,10 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="92">
@@ -3974,11 +3980,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4012,11 +4018,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4037,7 +4043,7 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>2300000</v>
+        <v>7000000</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -4050,11 +4056,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4075,7 +4081,7 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>2000000</v>
+        <v>63000000</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4088,11 +4094,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4113,7 +4119,7 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>2000000</v>
+        <v>1200000</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -4126,11 +4132,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4151,7 +4157,7 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4164,11 +4170,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4189,7 +4195,7 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>5000000</v>
+        <v>2300000</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4202,11 +4208,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4227,7 +4233,7 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>9100000</v>
+        <v>2000000</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -4240,11 +4246,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4265,7 +4271,7 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>5500000</v>
+        <v>2000000</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -4278,11 +4284,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4303,7 +4309,7 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>22000000</v>
+        <v>15000000</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4316,11 +4322,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4341,7 +4347,7 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -4354,11 +4360,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4379,7 +4385,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>110000000</v>
+        <v>9100000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4392,11 +4398,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4417,7 +4423,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>20000000</v>
+        <v>5500000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4430,11 +4436,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4455,7 +4461,7 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>700000</v>
+        <v>22000000</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4468,11 +4474,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4493,7 +4499,7 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>53000000</v>
+        <v>4000000</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -4506,11 +4512,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4521,10 +4527,8 @@
       <c r="E106" t="n">
         <v/>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F106" t="n">
+        <v/>
       </c>
       <c r="G106" t="n">
         <v/>
@@ -4533,10 +4537,10 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>7000000</v>
+        <v>110000000</v>
       </c>
       <c r="J106" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4546,11 +4550,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4571,10 +4575,10 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="J107" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4584,11 +4588,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4609,7 +4613,7 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>53550000</v>
+        <v>700000</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4622,11 +4626,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4647,10 +4651,10 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>15000000</v>
+        <v>53000000</v>
       </c>
       <c r="J109" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4660,11 +4664,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4675,8 +4679,10 @@
       <c r="E110" t="n">
         <v/>
       </c>
-      <c r="F110" t="n">
-        <v/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G110" t="n">
         <v/>
@@ -4685,10 +4691,10 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>5400000</v>
+        <v>7000000</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="111">
@@ -4698,11 +4704,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4723,10 +4729,10 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>13000000</v>
+        <v>5000000</v>
       </c>
       <c r="J111" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="112">
@@ -4736,11 +4742,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4761,10 +4767,10 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>2500000</v>
+        <v>53550000</v>
       </c>
       <c r="J112" t="n">
-        <v>1498000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4774,11 +4780,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4799,10 +4805,10 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="114">
@@ -4812,11 +4818,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>C.Trinh</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4837,10 +4843,10 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>5400000</v>
       </c>
       <c r="J114" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4850,34 +4856,186 @@
         </is>
       </c>
       <c r="B115" t="n">
+        <v>62</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Lan Phương</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v/>
+      </c>
+      <c r="F115" t="n">
+        <v/>
+      </c>
+      <c r="G115" t="n">
+        <v/>
+      </c>
+      <c r="H115" t="n">
+        <v/>
+      </c>
+      <c r="I115" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="J115" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>61</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>C.Hoành Ná</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v/>
+      </c>
+      <c r="F116" t="n">
+        <v/>
+      </c>
+      <c r="G116" t="n">
+        <v/>
+      </c>
+      <c r="H116" t="n">
+        <v/>
+      </c>
+      <c r="I116" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1498000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>60</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Cô Nhung</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v/>
+      </c>
+      <c r="F117" t="n">
+        <v/>
+      </c>
+      <c r="G117" t="n">
+        <v/>
+      </c>
+      <c r="H117" t="n">
+        <v/>
+      </c>
+      <c r="I117" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>59</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Quan thị Hoa</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v/>
+      </c>
+      <c r="F118" t="n">
+        <v/>
+      </c>
+      <c r="G118" t="n">
+        <v/>
+      </c>
+      <c r="H118" t="n">
+        <v/>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
         <v>58</v>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Chị Mai</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v/>
-      </c>
-      <c r="F115" t="n">
-        <v/>
-      </c>
-      <c r="G115" t="n">
-        <v/>
-      </c>
-      <c r="H115" t="n">
-        <v/>
-      </c>
-      <c r="I115" t="n">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v/>
+      </c>
+      <c r="F119" t="n">
+        <v/>
+      </c>
+      <c r="G119" t="n">
+        <v/>
+      </c>
+      <c r="H119" t="n">
+        <v/>
+      </c>
+      <c r="I119" t="n">
         <v>1000000</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J119" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bảo trân</t>
+          <t>ngọc hân</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,10 +505,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>2000000</v>
+        <v>35000000</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="3">
@@ -518,11 +518,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">trương thị lan </t>
+          <t>lan anh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0824445443</t>
+          <t>0372781693</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -545,7 +545,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>18000000</v>
+        <v>2800000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -558,11 +558,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>thạch thị sơ ri</t>
+          <t>lâm thị duyên</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -573,10 +573,8 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>034925472</t>
-        </is>
+      <c r="F4" t="n">
+        <v/>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -585,7 +583,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>35000000</v>
+        <v>500000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -598,11 +596,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần thị ngọc bích </t>
+          <t>mạch minh tâm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -613,10 +611,8 @@
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0777999926</t>
-        </is>
+      <c r="F5" t="n">
+        <v/>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -625,7 +621,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>15000000</v>
+        <v>2300000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -638,11 +634,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t xml:space="preserve">trần lê ngọc bảo yến </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -653,10 +649,8 @@
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0865927791</t>
-        </is>
+      <c r="F6" t="n">
+        <v/>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -665,10 +659,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>22000000</v>
+        <v>3000000</v>
       </c>
       <c r="J6" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -678,11 +672,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>lâm thuỳ dương</t>
+          <t>bảo trân</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -693,10 +687,8 @@
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0383465843</t>
-        </is>
+      <c r="F7" t="n">
+        <v/>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -705,7 +697,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>13000000</v>
+        <v>2000000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -718,11 +710,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>đường thị út</t>
+          <t xml:space="preserve">trương thị lan </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -735,7 +727,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0949407389</t>
+          <t>0824445443</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -745,7 +737,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>7000000</v>
+        <v>18000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -758,11 +750,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+          <t>thạch thị sơ ri</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,7 +767,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0939925920</t>
+          <t>034925472</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -785,7 +777,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>20000000</v>
+        <v>35000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -798,11 +790,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>diệp thị mỹ hiền</t>
+          <t xml:space="preserve">trần thị ngọc bích </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -815,7 +807,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0969540359</t>
+          <t>0777999926</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -825,7 +817,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>1500000</v>
+        <v>15000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -838,11 +830,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>đặng thị mỹ ngọc</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -855,7 +847,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0392273827</t>
+          <t>0865927791</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -865,10 +857,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>1500000</v>
+        <v>22000000</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="12">
@@ -878,11 +870,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>lâm thuỳ dương</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -895,7 +887,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0383465843</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -905,7 +897,7 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>1600000</v>
+        <v>13000000</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -918,11 +910,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t>đường thị út</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -935,7 +927,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0949407389</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -945,7 +937,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>1300000</v>
+        <v>7000000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -958,11 +950,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -975,7 +967,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>0939925920</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -985,7 +977,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>13000000</v>
+        <v>20000000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -998,11 +990,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>diệp thị mỹ hiền</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1015,7 +1007,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0969540359</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1025,10 +1017,10 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>25000000</v>
+        <v>1500000</v>
       </c>
       <c r="J15" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1038,11 +1030,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t>đặng thị mỹ ngọc</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1053,8 +1045,10 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="n">
-        <v/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0392273827</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1063,10 +1057,10 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>15000000</v>
+        <v>1500000</v>
       </c>
       <c r="J16" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1076,11 +1070,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1093,7 +1087,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0983432263</t>
+          <t>0347738370</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1103,7 +1097,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>1200000</v>
+        <v>1600000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1116,11 +1110,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1133,7 +1127,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>077721995</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1143,7 +1137,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1156,11 +1150,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1173,7 +1167,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0917250314</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1183,7 +1177,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>688000</v>
+        <v>13000000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1196,11 +1190,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1211,8 +1205,10 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="n">
-        <v/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1221,10 +1217,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="J20" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="21">
@@ -1234,11 +1230,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1259,10 +1255,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>800000</v>
+        <v>15000000</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="22">
@@ -1272,11 +1268,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1287,8 +1283,10 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="n">
-        <v/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0983432263</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1297,7 +1295,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1310,11 +1308,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1325,8 +1323,10 @@
       <c r="E23" t="n">
         <v/>
       </c>
-      <c r="F23" t="n">
-        <v/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0908179083</t>
+        </is>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1335,7 +1335,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>16500000</v>
+        <v>1000000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1348,11 +1348,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1363,8 +1363,10 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="n">
-        <v/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1373,7 +1375,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>21500000</v>
+        <v>688000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1386,11 +1388,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1401,10 +1403,8 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F25" t="n">
+        <v/>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1413,10 +1413,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>25000000</v>
+        <v>4000000</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="26">
@@ -1426,11 +1426,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1441,10 +1441,8 @@
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0337594599</t>
-        </is>
+      <c r="F26" t="n">
+        <v/>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1453,7 +1451,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>20000000</v>
+        <v>800000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1466,11 +1464,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1491,10 +1489,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>2850000</v>
+        <v>3000000</v>
       </c>
       <c r="J27" t="n">
-        <v>5600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1504,11 +1502,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1519,10 +1517,8 @@
       <c r="E28" t="n">
         <v/>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F28" t="n">
+        <v/>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1531,10 +1527,10 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>10000000</v>
+        <v>16500000</v>
       </c>
       <c r="J28" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1544,11 +1540,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1569,10 +1565,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>22000000</v>
+        <v>21500000</v>
       </c>
       <c r="J29" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1582,11 +1578,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1599,7 +1595,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1609,7 +1605,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>8000000</v>
+        <v>25000000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1622,11 +1618,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1639,7 +1635,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0337594599</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1649,10 +1645,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="J31" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1662,11 +1658,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1687,10 +1683,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>600000</v>
+        <v>2850000</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5600000</v>
       </c>
     </row>
     <row r="33">
@@ -1700,11 +1696,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1715,8 +1711,10 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="n">
-        <v/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1725,10 +1723,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J33" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="34">
@@ -1738,11 +1736,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1763,10 +1761,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>22000000</v>
       </c>
       <c r="J34" t="n">
-        <v>10500000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="35">
@@ -1776,11 +1774,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1791,8 +1789,10 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="n">
-        <v/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1801,10 +1801,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="J35" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1814,11 +1814,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1829,8 +1829,10 @@
       <c r="E36" t="n">
         <v/>
       </c>
-      <c r="F36" t="n">
-        <v/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G36" t="n">
         <v/>
@@ -1839,10 +1841,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J36" t="n">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="37">
@@ -1852,11 +1854,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1877,10 +1879,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="J37" t="n">
-        <v>7900000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1890,11 +1892,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1918,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>16500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="39">
@@ -1928,11 +1930,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1943,10 +1945,8 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F39" t="n">
+        <v/>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1955,10 +1955,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>32000000</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="40">
@@ -1968,11 +1968,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1983,10 +1983,8 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>037642542</t>
-        </is>
+      <c r="F40" t="n">
+        <v/>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -1995,10 +1993,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>1400000</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="41">
@@ -2008,11 +2006,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2023,10 +2021,8 @@
       <c r="E41" t="n">
         <v/>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0359390825</t>
-        </is>
+      <c r="F41" t="n">
+        <v/>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -2035,10 +2031,10 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="42">
@@ -2048,11 +2044,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2063,10 +2059,8 @@
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0384362705</t>
-        </is>
+      <c r="F42" t="n">
+        <v/>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -2075,10 +2069,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>30500000</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>7900000</v>
       </c>
     </row>
     <row r="43">
@@ -2088,11 +2082,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2103,24 +2097,20 @@
       <c r="E43" t="n">
         <v/>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0909903397</t>
-        </is>
+      <c r="F43" t="n">
+        <v/>
       </c>
       <c r="G43" t="n">
         <v/>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H43" t="n">
+        <v/>
       </c>
       <c r="I43" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="44">
@@ -2130,11 +2120,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2145,8 +2135,10 @@
       <c r="E44" t="n">
         <v/>
       </c>
-      <c r="F44" t="n">
-        <v/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0967039154</t>
+        </is>
       </c>
       <c r="G44" t="n">
         <v/>
@@ -2155,7 +2147,7 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>2000000</v>
+        <v>32000000</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2168,11 +2160,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2183,8 +2175,10 @@
       <c r="E45" t="n">
         <v/>
       </c>
-      <c r="F45" t="n">
-        <v/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>037642542</t>
+        </is>
       </c>
       <c r="G45" t="n">
         <v/>
@@ -2193,10 +2187,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="J45" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2206,11 +2200,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2221,8 +2215,10 @@
       <c r="E46" t="n">
         <v/>
       </c>
-      <c r="F46" t="n">
-        <v/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0359390825</t>
+        </is>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -2231,7 +2227,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>40000000</v>
+        <v>750000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2244,11 +2240,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2259,8 +2255,10 @@
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="n">
-        <v/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0384362705</t>
+        </is>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -2269,7 +2267,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>1500000</v>
+        <v>30500000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2282,11 +2280,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2297,20 +2295,24 @@
       <c r="E48" t="n">
         <v/>
       </c>
-      <c r="F48" t="n">
-        <v/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0909903397</t>
+        </is>
       </c>
       <c r="G48" t="n">
         <v/>
       </c>
-      <c r="H48" t="n">
-        <v/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
       <c r="I48" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J48" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2320,11 +2322,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2345,7 +2347,7 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>3200000</v>
+        <v>2000000</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2358,11 +2360,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2383,10 +2385,10 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="51">
@@ -2396,11 +2398,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2421,7 +2423,7 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>34000000</v>
+        <v>40000000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2434,11 +2436,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2459,7 +2461,7 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>4400000</v>
+        <v>1500000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2472,11 +2474,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2497,10 +2499,10 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J53" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="54">
@@ -2510,11 +2512,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2535,7 +2537,7 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>1600000</v>
+        <v>3200000</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2548,11 +2550,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2573,7 +2575,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>900000</v>
+        <v>2000000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2586,11 +2588,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2611,7 +2613,7 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>3000000</v>
+        <v>34000000</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2624,11 +2626,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2639,10 +2641,8 @@
       <c r="E57" t="n">
         <v/>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F57" t="n">
+        <v/>
       </c>
       <c r="G57" t="n">
         <v/>
@@ -2651,10 +2651,10 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>5000000</v>
+        <v>4400000</v>
       </c>
       <c r="J57" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2664,11 +2664,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2689,10 +2689,10 @@
         <v/>
       </c>
       <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>5000000</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3386000</v>
       </c>
     </row>
     <row r="59">
@@ -2702,11 +2702,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2727,7 +2727,7 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>7000000</v>
+        <v>1600000</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2740,11 +2740,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2755,10 +2755,8 @@
       <c r="E60" t="n">
         <v/>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F60" t="n">
+        <v/>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -2767,10 +2765,10 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="J60" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2780,11 +2778,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2795,10 +2793,8 @@
       <c r="E61" t="n">
         <v/>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0848708885</t>
-        </is>
+      <c r="F61" t="n">
+        <v/>
       </c>
       <c r="G61" t="n">
         <v/>
@@ -2807,7 +2803,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2820,11 +2816,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2835,8 +2831,10 @@
       <c r="E62" t="n">
         <v/>
       </c>
-      <c r="F62" t="n">
-        <v/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0369473448</t>
+        </is>
       </c>
       <c r="G62" t="n">
         <v/>
@@ -2845,10 +2843,10 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J62" t="n">
-        <v>25000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="63">
@@ -2858,11 +2856,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2873,10 +2871,8 @@
       <c r="E63" t="n">
         <v/>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0964945901</t>
-        </is>
+      <c r="F63" t="n">
+        <v/>
       </c>
       <c r="G63" t="n">
         <v/>
@@ -2885,10 +2881,10 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>25000000</v>
+        <v>5000000</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>3386000</v>
       </c>
     </row>
     <row r="64">
@@ -2898,11 +2894,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2913,10 +2909,8 @@
       <c r="E64" t="n">
         <v/>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0326608620</t>
-        </is>
+      <c r="F64" t="n">
+        <v/>
       </c>
       <c r="G64" t="n">
         <v/>
@@ -2925,7 +2919,7 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>30000000</v>
+        <v>7000000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2938,11 +2932,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2955,7 +2949,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -2965,10 +2959,10 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="66">
@@ -2978,11 +2972,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2995,7 +2989,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3005,7 +2999,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>3900000</v>
+        <v>4000000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3018,11 +3012,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3031,12 +3025,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>9417002720</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0374112377</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F67" t="n">
+        <v/>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -3045,10 +3037,10 @@
         <v/>
       </c>
       <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>25000000</v>
-      </c>
-      <c r="J67" t="n">
-        <v>12000000</v>
       </c>
     </row>
     <row r="68">
@@ -3058,11 +3050,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3071,23 +3063,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>94197013583</v>
+        <v/>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G68" t="n">
         <v/>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H68" t="n">
+        <v/>
       </c>
       <c r="I68" t="n">
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3100,11 +3090,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3117,7 +3107,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3127,7 +3117,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>3700000</v>
+        <v>30000000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3140,11 +3130,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3155,8 +3145,10 @@
       <c r="E70" t="n">
         <v/>
       </c>
-      <c r="F70" t="n">
-        <v/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0386084494</t>
+        </is>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -3165,7 +3157,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3178,11 +3170,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3193,8 +3185,10 @@
       <c r="E71" t="n">
         <v/>
       </c>
-      <c r="F71" t="n">
-        <v/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0365658917</t>
+        </is>
       </c>
       <c r="G71" t="n">
         <v/>
@@ -3203,7 +3197,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>25000000</v>
+        <v>3900000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3216,11 +3210,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3229,11 +3223,11 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v/>
+        <v>9417002720</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3243,7 +3237,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="J72" t="n">
         <v>12000000</v>
@@ -3256,11 +3250,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3269,19 +3263,23 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v/>
-      </c>
-      <c r="F73" t="n">
-        <v/>
+        <v>94197013583</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0977825701</t>
+        </is>
       </c>
       <c r="G73" t="n">
         <v/>
       </c>
-      <c r="H73" t="n">
-        <v/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
       <c r="I73" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3294,11 +3292,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3309,8 +3307,10 @@
       <c r="E74" t="n">
         <v/>
       </c>
-      <c r="F74" t="n">
-        <v/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0376680568</t>
+        </is>
       </c>
       <c r="G74" t="n">
         <v/>
@@ -3319,7 +3319,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>3000000</v>
+        <v>3700000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3332,11 +3332,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3357,7 +3357,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>45000000</v>
+        <v>2000000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3370,11 +3370,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3395,10 +3395,10 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>15000000</v>
+        <v>25000000</v>
       </c>
       <c r="J76" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3408,11 +3408,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3423,8 +3423,10 @@
       <c r="E77" t="n">
         <v/>
       </c>
-      <c r="F77" t="n">
-        <v/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G77" t="n">
         <v/>
@@ -3433,10 +3435,10 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>25000000</v>
+        <v>5000000</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="78">
@@ -3446,11 +3448,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3471,7 +3473,7 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -3484,11 +3486,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3509,7 +3511,7 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3522,11 +3524,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3547,10 +3549,10 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>15000000</v>
+        <v>45000000</v>
       </c>
       <c r="J80" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3560,11 +3562,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3585,10 +3587,10 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>50000000</v>
+        <v>15000000</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="82">
@@ -3598,11 +3600,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3613,10 +3615,8 @@
       <c r="E82" t="n">
         <v/>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F82" t="n">
+        <v/>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -3625,10 +3625,10 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>85000000</v>
+        <v>25000000</v>
       </c>
       <c r="J82" t="n">
-        <v>30000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3638,11 +3638,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3663,7 +3663,7 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>70000000</v>
+        <v>25000000</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3676,11 +3676,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3701,10 +3701,10 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="J84" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3714,11 +3714,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3739,10 +3739,10 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>1000000</v>
+        <v>15000000</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="86">
@@ -3752,11 +3752,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3777,7 +3777,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>1500000</v>
+        <v>50000000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3790,11 +3790,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3805,8 +3805,10 @@
       <c r="E87" t="n">
         <v/>
       </c>
-      <c r="F87" t="n">
-        <v/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G87" t="n">
         <v/>
@@ -3815,10 +3817,10 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>10000000</v>
+        <v>85000000</v>
       </c>
       <c r="J87" t="n">
-        <v>2000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="88">
@@ -3828,11 +3830,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3853,10 +3855,10 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>18900000</v>
+        <v>70000000</v>
       </c>
       <c r="J88" t="n">
-        <v>7200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3866,11 +3868,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3891,10 +3893,10 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>13000000</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="90">
@@ -3904,11 +3906,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3929,10 +3931,10 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="J90" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3942,11 +3944,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3967,10 +3969,10 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="J91" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3980,11 +3982,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4005,10 +4007,10 @@
         <v/>
       </c>
       <c r="I92" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J92" t="n">
         <v>2000000</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4018,11 +4020,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4043,10 +4045,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>7000000</v>
+        <v>18900000</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>7200000</v>
       </c>
     </row>
     <row r="94">
@@ -4056,11 +4058,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4081,7 +4083,7 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>63000000</v>
+        <v>13000000</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4094,11 +4096,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4119,10 +4121,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>1200000</v>
+        <v>10000000</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="96">
@@ -4132,11 +4134,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4157,10 +4159,10 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="97">
@@ -4170,11 +4172,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4195,7 +4197,7 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>2300000</v>
+        <v>2000000</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4208,11 +4210,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4233,7 +4235,7 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -4246,11 +4248,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4271,7 +4273,7 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>2000000</v>
+        <v>63000000</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -4284,11 +4286,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4309,7 +4311,7 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>15000000</v>
+        <v>1200000</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4322,11 +4324,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4347,7 +4349,7 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -4360,11 +4362,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4385,7 +4387,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>9100000</v>
+        <v>2300000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4398,11 +4400,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4423,7 +4425,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>5500000</v>
+        <v>2000000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4436,11 +4438,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4461,7 +4463,7 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>22000000</v>
+        <v>2000000</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4474,11 +4476,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4499,7 +4501,7 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -4512,11 +4514,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4537,7 +4539,7 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>110000000</v>
+        <v>5000000</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -4550,11 +4552,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4575,7 +4577,7 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>20000000</v>
+        <v>9100000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4588,11 +4590,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4613,7 +4615,7 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>700000</v>
+        <v>5500000</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4626,11 +4628,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4651,7 +4653,7 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>53000000</v>
+        <v>22000000</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -4664,11 +4666,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4679,10 +4681,8 @@
       <c r="E110" t="n">
         <v/>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F110" t="n">
+        <v/>
       </c>
       <c r="G110" t="n">
         <v/>
@@ -4691,10 +4691,10 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="J110" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4704,11 +4704,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4729,10 +4729,10 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>5000000</v>
+        <v>110000000</v>
       </c>
       <c r="J111" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4742,11 +4742,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4767,7 +4767,7 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>53550000</v>
+        <v>20000000</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -4780,11 +4780,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4805,10 +4805,10 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>15000000</v>
+        <v>700000</v>
       </c>
       <c r="J113" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4818,11 +4818,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4843,7 +4843,7 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>5400000</v>
+        <v>53000000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4856,11 +4856,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4871,8 +4871,10 @@
       <c r="E115" t="n">
         <v/>
       </c>
-      <c r="F115" t="n">
-        <v/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G115" t="n">
         <v/>
@@ -4881,10 +4883,10 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>13000000</v>
+        <v>7000000</v>
       </c>
       <c r="J115" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="116">
@@ -4894,11 +4896,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4919,10 +4921,10 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="J116" t="n">
-        <v>1498000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="117">
@@ -4932,11 +4934,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4957,7 +4959,7 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>3000000</v>
+        <v>53550000</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -4970,11 +4972,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4995,10 +4997,10 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="J118" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="119">
@@ -5008,34 +5010,224 @@
         </is>
       </c>
       <c r="B119" t="n">
+        <v>63</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>C.Trinh</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v/>
+      </c>
+      <c r="F119" t="n">
+        <v/>
+      </c>
+      <c r="G119" t="n">
+        <v/>
+      </c>
+      <c r="H119" t="n">
+        <v/>
+      </c>
+      <c r="I119" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>62</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Lan Phương</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v/>
+      </c>
+      <c r="F120" t="n">
+        <v/>
+      </c>
+      <c r="G120" t="n">
+        <v/>
+      </c>
+      <c r="H120" t="n">
+        <v/>
+      </c>
+      <c r="I120" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="J120" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>61</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>C.Hoành Ná</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v/>
+      </c>
+      <c r="F121" t="n">
+        <v/>
+      </c>
+      <c r="G121" t="n">
+        <v/>
+      </c>
+      <c r="H121" t="n">
+        <v/>
+      </c>
+      <c r="I121" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1498000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>60</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Cô Nhung</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v/>
+      </c>
+      <c r="F122" t="n">
+        <v/>
+      </c>
+      <c r="G122" t="n">
+        <v/>
+      </c>
+      <c r="H122" t="n">
+        <v/>
+      </c>
+      <c r="I122" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>59</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Quan thị Hoa</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v/>
+      </c>
+      <c r="F123" t="n">
+        <v/>
+      </c>
+      <c r="G123" t="n">
+        <v/>
+      </c>
+      <c r="H123" t="n">
+        <v/>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
         <v>58</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Chị Mai</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v/>
-      </c>
-      <c r="F119" t="n">
-        <v/>
-      </c>
-      <c r="G119" t="n">
-        <v/>
-      </c>
-      <c r="H119" t="n">
-        <v/>
-      </c>
-      <c r="I119" t="n">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v/>
+      </c>
+      <c r="F124" t="n">
+        <v/>
+      </c>
+      <c r="G124" t="n">
+        <v/>
+      </c>
+      <c r="H124" t="n">
+        <v/>
+      </c>
+      <c r="I124" t="n">
         <v>1000000</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J124" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ngọc hân</t>
+          <t>mai hồng nương</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,8 +495,10 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="n">
-        <v/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0760377571</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -505,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>35000000</v>
+        <v>6000000</v>
       </c>
       <c r="J2" t="n">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="3">
@@ -518,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>lan anh</t>
+          <t>ngọc hân</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -533,10 +535,8 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0372781693</t>
-        </is>
+      <c r="F3" t="n">
+        <v/>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -545,10 +545,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>2800000</v>
+        <v>35000000</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="4">
@@ -558,11 +558,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lâm thị duyên</t>
+          <t>lan anh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -573,8 +573,10 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="n">
-        <v/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0372781693</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -583,7 +585,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>500000</v>
+        <v>2800000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -596,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>mạch minh tâm</t>
+          <t>lâm thị duyên</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -621,7 +623,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>2300000</v>
+        <v>500000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -634,11 +636,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần lê ngọc bảo yến </t>
+          <t>mạch minh tâm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -659,7 +661,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>3000000</v>
+        <v>2300000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -672,11 +674,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bảo trân</t>
+          <t xml:space="preserve">trần lê ngọc bảo yến </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -697,7 +699,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -710,11 +712,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">trương thị lan </t>
+          <t>bảo trân</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -725,10 +727,8 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0824445443</t>
-        </is>
+      <c r="F8" t="n">
+        <v/>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -737,7 +737,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -750,11 +750,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>thạch thị sơ ri</t>
+          <t xml:space="preserve">trương thị lan </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>034925472</t>
+          <t>0824445443</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -777,7 +777,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>35000000</v>
+        <v>18000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần thị ngọc bích </t>
+          <t>thạch thị sơ ri</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0777999926</t>
+          <t>034925472</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -817,7 +817,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>15000000</v>
+        <v>35000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -830,11 +830,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t xml:space="preserve">trần thị ngọc bích </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0865927791</t>
+          <t>0777999926</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -857,10 +857,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>22000000</v>
+        <v>15000000</v>
       </c>
       <c r="J11" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -870,11 +870,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>lâm thuỳ dương</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0383465843</t>
+          <t>0865927791</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -897,10 +897,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>13000000</v>
+        <v>22000000</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="13">
@@ -910,11 +910,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>đường thị út</t>
+          <t>lâm thuỳ dương</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0949407389</t>
+          <t>0383465843</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -937,7 +937,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>7000000</v>
+        <v>13000000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -950,11 +950,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+          <t>đường thị út</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0939925920</t>
+          <t>0949407389</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -977,7 +977,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>20000000</v>
+        <v>7000000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -990,11 +990,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>diệp thị mỹ hiền</t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0969540359</t>
+          <t>0939925920</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1017,7 +1017,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>1500000</v>
+        <v>20000000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>đặng thị mỹ ngọc</t>
+          <t>diệp thị mỹ hiền</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0392273827</t>
+          <t>0969540359</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1070,11 +1070,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>đặng thị mỹ ngọc</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0392273827</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1097,7 +1097,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>1600000</v>
+        <v>1500000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1110,11 +1110,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0347738370</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1137,7 +1137,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1150,11 +1150,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>077721995</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1177,7 +1177,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>13000000</v>
+        <v>1300000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1190,11 +1190,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0917250314</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1217,10 +1217,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>25000000</v>
+        <v>13000000</v>
       </c>
       <c r="J20" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1230,11 +1230,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1245,8 +1245,10 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="n">
-        <v/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1255,10 +1257,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>15000000</v>
+        <v>25000000</v>
       </c>
       <c r="J21" t="n">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="22">
@@ -1268,11 +1270,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1283,10 +1285,8 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0983432263</t>
-        </is>
+      <c r="F22" t="n">
+        <v/>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1295,10 +1295,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>1200000</v>
+        <v>15000000</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="23">
@@ -1308,11 +1308,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>0983432263</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1335,7 +1335,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1348,11 +1348,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0908179083</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1375,7 +1375,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>688000</v>
+        <v>1000000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1388,11 +1388,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1403,8 +1403,10 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="n">
-        <v/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1413,10 +1415,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>4000000</v>
+        <v>688000</v>
       </c>
       <c r="J25" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1426,11 +1428,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1451,10 +1453,10 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>800000</v>
+        <v>4000000</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="27">
@@ -1464,11 +1466,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1489,7 +1491,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>3000000</v>
+        <v>800000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1502,11 +1504,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1527,7 +1529,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>16500000</v>
+        <v>3000000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1540,11 +1542,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1565,7 +1567,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>21500000</v>
+        <v>16500000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1578,11 +1580,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1593,10 +1595,8 @@
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F30" t="n">
+        <v/>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1605,7 +1605,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1618,11 +1618,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0337594599</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1645,7 +1645,7 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>20000000</v>
+        <v>25000000</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1658,11 +1658,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1673,8 +1673,10 @@
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="n">
-        <v/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0337594599</t>
+        </is>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1683,10 +1685,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>2850000</v>
+        <v>20000000</v>
       </c>
       <c r="J32" t="n">
-        <v>5600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1696,11 +1698,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1711,10 +1713,8 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F33" t="n">
+        <v/>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1723,10 +1723,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>10000000</v>
+        <v>2850000</v>
       </c>
       <c r="J33" t="n">
-        <v>15000000</v>
+        <v>5600000</v>
       </c>
     </row>
     <row r="34">
@@ -1736,11 +1736,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1751,8 +1751,10 @@
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="n">
-        <v/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1761,10 +1763,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>22000000</v>
+        <v>10000000</v>
       </c>
       <c r="J34" t="n">
-        <v>21000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="35">
@@ -1774,11 +1776,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1789,10 +1791,8 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F35" t="n">
+        <v/>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1801,10 +1801,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>8000000</v>
+        <v>22000000</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="36">
@@ -1814,11 +1814,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1841,10 +1841,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>5000000</v>
+        <v>8000000</v>
       </c>
       <c r="J36" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1854,11 +1854,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1869,8 +1869,10 @@
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="n">
-        <v/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1879,10 +1881,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>600000</v>
+        <v>5000000</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="38">
@@ -1892,11 +1894,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1917,10 +1919,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="J38" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1930,11 +1932,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1958,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>10500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="40">
@@ -1968,11 +1970,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1996,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>15000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="41">
@@ -2006,11 +2008,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2034,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="42">
@@ -2044,11 +2046,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2072,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7900000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="43">
@@ -2082,11 +2084,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2110,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16500000</v>
+        <v>7900000</v>
       </c>
     </row>
     <row r="44">
@@ -2120,11 +2122,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2135,10 +2137,8 @@
       <c r="E44" t="n">
         <v/>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F44" t="n">
+        <v/>
       </c>
       <c r="G44" t="n">
         <v/>
@@ -2147,10 +2147,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>32000000</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="45">
@@ -2160,11 +2160,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>037642542</t>
+          <t>0967039154</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2187,7 +2187,7 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>1400000</v>
+        <v>32000000</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2200,11 +2200,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0359390825</t>
+          <t>037642542</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2227,7 +2227,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>750000</v>
+        <v>1400000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2240,11 +2240,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0384362705</t>
+          <t>0359390825</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2267,7 +2267,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>30500000</v>
+        <v>750000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2280,11 +2280,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2297,19 +2297,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0909903397</t>
+          <t>0384362705</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v/>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H48" t="n">
+        <v/>
       </c>
       <c r="I48" t="n">
-        <v>8000000</v>
+        <v>30500000</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2322,11 +2320,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2337,17 +2335,21 @@
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="n">
-        <v/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0909903397</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v/>
       </c>
-      <c r="H49" t="n">
-        <v/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
       <c r="I49" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2360,11 +2362,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2385,10 +2387,10 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J50" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2398,11 +2400,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2423,10 +2425,10 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>40000000</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="52">
@@ -2436,11 +2438,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2461,7 +2463,7 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>1500000</v>
+        <v>40000000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2474,11 +2476,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2499,10 +2501,10 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J53" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2512,11 +2514,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2537,10 +2539,10 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>3200000</v>
+        <v>2000000</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="55">
@@ -2550,11 +2552,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2575,7 +2577,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>2000000</v>
+        <v>3200000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2588,11 +2590,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2613,7 +2615,7 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>34000000</v>
+        <v>2000000</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2626,11 +2628,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2651,7 +2653,7 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>4400000</v>
+        <v>34000000</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2664,11 +2666,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2689,10 +2691,10 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>4400000</v>
       </c>
       <c r="J58" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2702,11 +2704,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2727,10 +2729,10 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="60">
@@ -2740,11 +2742,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2765,7 +2767,7 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>900000</v>
+        <v>1600000</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2778,11 +2780,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2803,7 +2805,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>3000000</v>
+        <v>900000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2816,11 +2818,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2831,10 +2833,8 @@
       <c r="E62" t="n">
         <v/>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F62" t="n">
+        <v/>
       </c>
       <c r="G62" t="n">
         <v/>
@@ -2843,10 +2843,10 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J62" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2856,11 +2856,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2871,8 +2871,10 @@
       <c r="E63" t="n">
         <v/>
       </c>
-      <c r="F63" t="n">
-        <v/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0369473448</t>
+        </is>
       </c>
       <c r="G63" t="n">
         <v/>
@@ -2884,7 +2886,7 @@
         <v>5000000</v>
       </c>
       <c r="J63" t="n">
-        <v>3386000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="64">
@@ -2894,11 +2896,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2919,10 +2921,10 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>3386000</v>
       </c>
     </row>
     <row r="65">
@@ -2932,11 +2934,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2947,10 +2949,8 @@
       <c r="E65" t="n">
         <v/>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F65" t="n">
+        <v/>
       </c>
       <c r="G65" t="n">
         <v/>
@@ -2959,10 +2959,10 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="J65" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2972,11 +2972,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0848708885</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -2999,10 +2999,10 @@
         <v/>
       </c>
       <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>4000000</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3012,11 +3012,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3027,8 +3027,10 @@
       <c r="E67" t="n">
         <v/>
       </c>
-      <c r="F67" t="n">
-        <v/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0848708885</t>
+        </is>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -3037,10 +3039,10 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="J67" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3050,11 +3052,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3065,10 +3067,8 @@
       <c r="E68" t="n">
         <v/>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0964945901</t>
-        </is>
+      <c r="F68" t="n">
+        <v/>
       </c>
       <c r="G68" t="n">
         <v/>
@@ -3077,10 +3077,10 @@
         <v/>
       </c>
       <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>25000000</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3090,11 +3090,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0326608620</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3117,7 +3117,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>30000000</v>
+        <v>25000000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3130,11 +3130,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3157,7 +3157,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>7000000</v>
+        <v>30000000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3170,11 +3170,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3197,7 +3197,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>3900000</v>
+        <v>7000000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3210,11 +3210,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3223,11 +3223,11 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0365658917</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3237,10 +3237,10 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>25000000</v>
+        <v>3900000</v>
       </c>
       <c r="J72" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3250,11 +3250,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3263,26 +3263,24 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>94197013583</v>
+        <v>9417002720</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G73" t="n">
         <v/>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H73" t="n">
+        <v/>
       </c>
       <c r="I73" t="n">
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="74">
@@ -3292,11 +3290,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3305,21 +3303,23 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v/>
+        <v>94197013583</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0977825701</t>
         </is>
       </c>
       <c r="G74" t="n">
         <v/>
       </c>
-      <c r="H74" t="n">
-        <v/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
       <c r="I74" t="n">
-        <v>3700000</v>
+        <v>5000000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3332,11 +3332,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3347,8 +3347,10 @@
       <c r="E75" t="n">
         <v/>
       </c>
-      <c r="F75" t="n">
-        <v/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0376680568</t>
+        </is>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -3357,7 +3359,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>2000000</v>
+        <v>3700000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3370,11 +3372,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3395,7 +3397,7 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3408,11 +3410,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3423,10 +3425,8 @@
       <c r="E77" t="n">
         <v/>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0387888961</t>
-        </is>
+      <c r="F77" t="n">
+        <v/>
       </c>
       <c r="G77" t="n">
         <v/>
@@ -3435,10 +3435,10 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="J77" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3448,11 +3448,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3463,8 +3463,10 @@
       <c r="E78" t="n">
         <v/>
       </c>
-      <c r="F78" t="n">
-        <v/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G78" t="n">
         <v/>
@@ -3473,10 +3475,10 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="79">
@@ -3486,11 +3488,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3511,7 +3513,7 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3524,11 +3526,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3549,7 +3551,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>45000000</v>
+        <v>3000000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3562,11 +3564,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3587,10 +3589,10 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>15000000</v>
+        <v>45000000</v>
       </c>
       <c r="J81" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3600,11 +3602,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3625,10 +3627,10 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>25000000</v>
+        <v>15000000</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="83">
@@ -3638,11 +3640,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3676,11 +3678,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3701,7 +3703,7 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3714,11 +3716,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3739,10 +3741,10 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>15000000</v>
+        <v>4000000</v>
       </c>
       <c r="J85" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3752,11 +3754,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3777,10 +3779,10 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>50000000</v>
+        <v>15000000</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="87">
@@ -3790,11 +3792,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3805,10 +3807,8 @@
       <c r="E87" t="n">
         <v/>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F87" t="n">
+        <v/>
       </c>
       <c r="G87" t="n">
         <v/>
@@ -3817,10 +3817,10 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>85000000</v>
+        <v>50000000</v>
       </c>
       <c r="J87" t="n">
-        <v>30000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3830,11 +3830,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3845,8 +3845,10 @@
       <c r="E88" t="n">
         <v/>
       </c>
-      <c r="F88" t="n">
-        <v/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -3855,10 +3857,10 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>70000000</v>
+        <v>85000000</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="89">
@@ -3868,11 +3870,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3893,10 +3895,10 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>70000000</v>
       </c>
       <c r="J89" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3906,11 +3908,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3931,10 +3933,10 @@
         <v/>
       </c>
       <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
         <v>1000000</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3944,11 +3946,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3969,7 +3971,7 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -3982,11 +3984,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4007,10 +4009,10 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J92" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4020,11 +4022,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4045,10 +4047,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>18900000</v>
+        <v>10000000</v>
       </c>
       <c r="J93" t="n">
-        <v>7200000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="94">
@@ -4058,11 +4060,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4083,10 +4085,10 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>13000000</v>
+        <v>18900000</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>7200000</v>
       </c>
     </row>
     <row r="95">
@@ -4096,11 +4098,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4121,10 +4123,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="J95" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4134,11 +4136,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4159,10 +4161,10 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J96" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="97">
@@ -4172,11 +4174,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4197,10 +4199,10 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="98">
@@ -4210,11 +4212,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4235,7 +4237,7 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -4248,11 +4250,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4273,7 +4275,7 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>63000000</v>
+        <v>7000000</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -4286,11 +4288,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4311,7 +4313,7 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>1200000</v>
+        <v>63000000</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4324,11 +4326,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4349,7 +4351,7 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>2000000</v>
+        <v>1200000</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -4362,11 +4364,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4387,7 +4389,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>2300000</v>
+        <v>2000000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4400,11 +4402,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4425,7 +4427,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>2000000</v>
+        <v>2300000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4438,11 +4440,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4476,11 +4478,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4501,7 +4503,7 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -4514,11 +4516,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4539,7 +4541,7 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>5000000</v>
+        <v>15000000</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -4552,11 +4554,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4577,7 +4579,7 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>9100000</v>
+        <v>5000000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4590,11 +4592,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4615,7 +4617,7 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>5500000</v>
+        <v>9100000</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4628,11 +4630,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4653,7 +4655,7 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>22000000</v>
+        <v>5500000</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -4666,11 +4668,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4691,7 +4693,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>4000000</v>
+        <v>22000000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4704,11 +4706,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4729,7 +4731,7 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>110000000</v>
+        <v>4000000</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4742,11 +4744,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4767,7 +4769,7 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>20000000</v>
+        <v>110000000</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -4780,11 +4782,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4805,7 +4807,7 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>700000</v>
+        <v>20000000</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -4818,11 +4820,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4843,7 +4845,7 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>53000000</v>
+        <v>700000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4856,11 +4858,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4871,10 +4873,8 @@
       <c r="E115" t="n">
         <v/>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F115" t="n">
+        <v/>
       </c>
       <c r="G115" t="n">
         <v/>
@@ -4883,10 +4883,10 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>7000000</v>
+        <v>53000000</v>
       </c>
       <c r="J115" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4896,11 +4896,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4911,8 +4911,10 @@
       <c r="E116" t="n">
         <v/>
       </c>
-      <c r="F116" t="n">
-        <v/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G116" t="n">
         <v/>
@@ -4921,10 +4923,10 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
       <c r="J116" t="n">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="117">
@@ -4934,11 +4936,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4959,10 +4961,10 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>53550000</v>
+        <v>5000000</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="118">
@@ -4972,11 +4974,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4997,10 +4999,10 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>15000000</v>
+        <v>53550000</v>
       </c>
       <c r="J118" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5010,11 +5012,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5035,10 +5037,10 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>5400000</v>
+        <v>15000000</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="120">
@@ -5048,11 +5050,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>C.Trinh</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5073,10 +5075,10 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>13000000</v>
+        <v>5400000</v>
       </c>
       <c r="J120" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5086,11 +5088,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5111,10 +5113,10 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>2500000</v>
+        <v>13000000</v>
       </c>
       <c r="J121" t="n">
-        <v>1498000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="122">
@@ -5124,11 +5126,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>C.Hoành Ná</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5149,10 +5151,10 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>1498000</v>
       </c>
     </row>
     <row r="123">
@@ -5162,11 +5164,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>Cô Nhung</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5187,10 +5189,10 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="J123" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -5200,34 +5202,72 @@
         </is>
       </c>
       <c r="B124" t="n">
+        <v>59</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Quan thị Hoa</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v/>
+      </c>
+      <c r="F124" t="n">
+        <v/>
+      </c>
+      <c r="G124" t="n">
+        <v/>
+      </c>
+      <c r="H124" t="n">
+        <v/>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
         <v>58</v>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Chị Mai</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v/>
-      </c>
-      <c r="F124" t="n">
-        <v/>
-      </c>
-      <c r="G124" t="n">
-        <v/>
-      </c>
-      <c r="H124" t="n">
-        <v/>
-      </c>
-      <c r="I124" t="n">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v/>
+      </c>
+      <c r="F125" t="n">
+        <v/>
+      </c>
+      <c r="G125" t="n">
+        <v/>
+      </c>
+      <c r="H125" t="n">
+        <v/>
+      </c>
+      <c r="I125" t="n">
         <v>1000000</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J125" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
@@ -977,7 +977,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>7000000</v>
+        <v>13000000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>

--- a/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mai hồng nương</t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0760377571</t>
+          <t>0833525730</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>6000000</v>
+        <v>50000000</v>
       </c>
       <c r="J2" t="n">
-        <v>2000000</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ngọc hân</t>
+          <t xml:space="preserve">tạ duy hoàng </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -545,10 +545,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>35000000</v>
+        <v>6000000</v>
       </c>
       <c r="J3" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -558,11 +558,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lan anh</t>
+          <t>nguyễn thị lệ trang</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0372781693</t>
+          <t>0786070121</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -585,7 +585,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>2800000</v>
+        <v>4000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>lâm thị duyên</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -623,7 +623,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>500000</v>
+        <v>7000000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -636,11 +636,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mạch minh tâm</t>
+          <t>nguyễn thị mỹ chăm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -651,8 +651,10 @@
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="n">
-        <v/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>09399259920</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -661,7 +663,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>2300000</v>
+        <v>6000000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -674,11 +676,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần lê ngọc bảo yến </t>
+          <t>mai hồng nương</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -689,8 +691,10 @@
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="n">
-        <v/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0760377571</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -699,10 +703,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="8">
@@ -712,11 +716,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>bảo trân</t>
+          <t>ngọc hân</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -737,10 +741,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>2000000</v>
+        <v>35000000</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="9">
@@ -750,11 +754,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">trương thị lan </t>
+          <t>lan anh</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -767,7 +771,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0824445443</t>
+          <t>0372781693</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -777,7 +781,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>18000000</v>
+        <v>2800000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -790,11 +794,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>thạch thị sơ ri</t>
+          <t>lâm thị duyên</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -805,10 +809,8 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>034925472</t>
-        </is>
+      <c r="F10" t="n">
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -817,7 +819,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>35000000</v>
+        <v>500000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -830,11 +832,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần thị ngọc bích </t>
+          <t>mạch minh tâm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -845,10 +847,8 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0777999926</t>
-        </is>
+      <c r="F11" t="n">
+        <v/>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -857,7 +857,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>15000000</v>
+        <v>2300000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -870,11 +870,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t xml:space="preserve">trần lê ngọc bảo yến </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -885,10 +885,8 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0865927791</t>
-        </is>
+      <c r="F12" t="n">
+        <v/>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -897,10 +895,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>22000000</v>
+        <v>3000000</v>
       </c>
       <c r="J12" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -910,11 +908,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>lâm thuỳ dương</t>
+          <t>bảo trân</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -925,10 +923,8 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0383465843</t>
-        </is>
+      <c r="F13" t="n">
+        <v/>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -937,7 +933,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>13000000</v>
+        <v>2000000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -950,11 +946,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>đường thị út</t>
+          <t xml:space="preserve">trương thị lan </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -967,7 +963,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0949407389</t>
+          <t>0824445443</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -977,7 +973,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>13000000</v>
+        <v>18000000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -990,11 +986,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+          <t>thạch thị sơ ri</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1007,7 +1003,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0939925920</t>
+          <t>034925472</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1017,7 +1013,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>20000000</v>
+        <v>35000000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1030,11 +1026,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>diệp thị mỹ hiền</t>
+          <t xml:space="preserve">trần thị ngọc bích </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1047,7 +1043,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0969540359</t>
+          <t>0777999926</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1057,7 +1053,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>1500000</v>
+        <v>15000000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1070,11 +1066,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>đặng thị mỹ ngọc</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1087,7 +1083,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0392273827</t>
+          <t>0865927791</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1097,10 +1093,10 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>1500000</v>
+        <v>22000000</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="18">
@@ -1110,11 +1106,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>lâm thuỳ dương</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1127,7 +1123,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0383465843</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1137,7 +1133,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>1600000</v>
+        <v>13000000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1150,11 +1146,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t>đường thị út</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1167,7 +1163,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0949407389</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1177,7 +1173,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>1300000</v>
+        <v>13000000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1190,11 +1186,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>0939925920</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1217,7 +1213,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>13000000</v>
+        <v>20000000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1230,11 +1226,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>diệp thị mỹ hiền</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1247,7 +1243,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0969540359</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1257,10 +1253,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>25000000</v>
+        <v>1500000</v>
       </c>
       <c r="J21" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1270,11 +1266,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t>đặng thị mỹ ngọc</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1285,8 +1281,10 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="n">
-        <v/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0392273827</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1295,10 +1293,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>15000000</v>
+        <v>1500000</v>
       </c>
       <c r="J22" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1308,11 +1306,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1325,7 +1323,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0983432263</t>
+          <t>0347738370</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1335,7 +1333,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>1200000</v>
+        <v>1600000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1348,11 +1346,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1365,7 +1363,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>077721995</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1375,7 +1373,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1388,11 +1386,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1405,7 +1403,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0917250314</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1415,7 +1413,7 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>688000</v>
+        <v>13000000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1428,11 +1426,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1443,8 +1441,10 @@
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="n">
-        <v/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1453,10 +1453,10 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="J26" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="27">
@@ -1466,11 +1466,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1491,10 +1491,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>800000</v>
+        <v>15000000</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="28">
@@ -1504,11 +1504,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1519,8 +1519,10 @@
       <c r="E28" t="n">
         <v/>
       </c>
-      <c r="F28" t="n">
-        <v/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0983432263</t>
+        </is>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1529,7 +1531,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1542,11 +1544,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1557,8 +1559,10 @@
       <c r="E29" t="n">
         <v/>
       </c>
-      <c r="F29" t="n">
-        <v/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0908179083</t>
+        </is>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -1567,7 +1571,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>16500000</v>
+        <v>1000000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1580,11 +1584,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1595,8 +1599,10 @@
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="n">
-        <v/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1605,7 +1611,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>21500000</v>
+        <v>688000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1618,11 +1624,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1633,10 +1639,8 @@
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F31" t="n">
+        <v/>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1645,10 +1649,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>25000000</v>
+        <v>4000000</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="32">
@@ -1658,11 +1662,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1673,10 +1677,8 @@
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0337594599</t>
-        </is>
+      <c r="F32" t="n">
+        <v/>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1685,7 +1687,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>20000000</v>
+        <v>800000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1698,11 +1700,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1723,10 +1725,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>2850000</v>
+        <v>3000000</v>
       </c>
       <c r="J33" t="n">
-        <v>5600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1736,11 +1738,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1751,10 +1753,8 @@
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F34" t="n">
+        <v/>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1763,10 +1763,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>10000000</v>
+        <v>16500000</v>
       </c>
       <c r="J34" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1776,11 +1776,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1801,10 +1801,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>22000000</v>
+        <v>21500000</v>
       </c>
       <c r="J35" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1814,11 +1814,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1841,7 +1841,7 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>8000000</v>
+        <v>25000000</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1854,11 +1854,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0337594599</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1881,10 +1881,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="J37" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1894,11 +1894,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1919,10 +1919,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>600000</v>
+        <v>2850000</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>5600000</v>
       </c>
     </row>
     <row r="39">
@@ -1932,11 +1932,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1947,8 +1947,10 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="n">
-        <v/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1957,10 +1959,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J39" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="40">
@@ -1970,11 +1972,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1995,10 +1997,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>22000000</v>
       </c>
       <c r="J40" t="n">
-        <v>10500000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="41">
@@ -2008,11 +2010,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2023,8 +2025,10 @@
       <c r="E41" t="n">
         <v/>
       </c>
-      <c r="F41" t="n">
-        <v/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -2033,10 +2037,10 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="J41" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2046,11 +2050,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2061,8 +2065,10 @@
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="n">
-        <v/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -2071,10 +2077,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J42" t="n">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="43">
@@ -2084,11 +2090,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2109,10 +2115,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="J43" t="n">
-        <v>7900000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2122,11 +2128,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2150,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>16500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="45">
@@ -2160,11 +2166,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2175,10 +2181,8 @@
       <c r="E45" t="n">
         <v/>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F45" t="n">
+        <v/>
       </c>
       <c r="G45" t="n">
         <v/>
@@ -2187,10 +2191,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>32000000</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="46">
@@ -2200,11 +2204,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2215,10 +2219,8 @@
       <c r="E46" t="n">
         <v/>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>037642542</t>
-        </is>
+      <c r="F46" t="n">
+        <v/>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -2227,10 +2229,10 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>1400000</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="47">
@@ -2240,11 +2242,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2255,10 +2257,8 @@
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0359390825</t>
-        </is>
+      <c r="F47" t="n">
+        <v/>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -2267,10 +2267,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="48">
@@ -2280,11 +2280,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2295,10 +2295,8 @@
       <c r="E48" t="n">
         <v/>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0384362705</t>
-        </is>
+      <c r="F48" t="n">
+        <v/>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -2307,10 +2305,10 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>30500000</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>7900000</v>
       </c>
     </row>
     <row r="49">
@@ -2320,11 +2318,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2335,24 +2333,20 @@
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0909903397</t>
-        </is>
+      <c r="F49" t="n">
+        <v/>
       </c>
       <c r="G49" t="n">
         <v/>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H49" t="n">
+        <v/>
       </c>
       <c r="I49" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="50">
@@ -2362,11 +2356,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2377,8 +2371,10 @@
       <c r="E50" t="n">
         <v/>
       </c>
-      <c r="F50" t="n">
-        <v/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0967039154</t>
+        </is>
       </c>
       <c r="G50" t="n">
         <v/>
@@ -2387,7 +2383,7 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>2000000</v>
+        <v>32000000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2400,11 +2396,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2415,8 +2411,10 @@
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="n">
-        <v/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>037642542</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2425,10 +2423,10 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="J51" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2438,11 +2436,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2453,8 +2451,10 @@
       <c r="E52" t="n">
         <v/>
       </c>
-      <c r="F52" t="n">
-        <v/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0359390825</t>
+        </is>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -2463,7 +2463,7 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>40000000</v>
+        <v>750000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2476,11 +2476,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2491,8 +2491,10 @@
       <c r="E53" t="n">
         <v/>
       </c>
-      <c r="F53" t="n">
-        <v/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0384362705</t>
+        </is>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -2501,7 +2503,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>1500000</v>
+        <v>30500000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2514,11 +2516,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2529,20 +2531,24 @@
       <c r="E54" t="n">
         <v/>
       </c>
-      <c r="F54" t="n">
-        <v/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0909903397</t>
+        </is>
       </c>
       <c r="G54" t="n">
         <v/>
       </c>
-      <c r="H54" t="n">
-        <v/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
       <c r="I54" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J54" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2552,11 +2558,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2577,7 +2583,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>3200000</v>
+        <v>2000000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2590,11 +2596,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2615,10 +2621,10 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="57">
@@ -2628,11 +2634,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2653,7 +2659,7 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>34000000</v>
+        <v>40000000</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2666,11 +2672,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2691,7 +2697,7 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>4400000</v>
+        <v>1500000</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2704,11 +2710,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2729,10 +2735,10 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J59" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="60">
@@ -2742,11 +2748,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2767,7 +2773,7 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>1600000</v>
+        <v>3200000</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2780,11 +2786,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2805,7 +2811,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>900000</v>
+        <v>2000000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2818,11 +2824,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2843,7 +2849,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>3000000</v>
+        <v>34000000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2856,11 +2862,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2871,10 +2877,8 @@
       <c r="E63" t="n">
         <v/>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F63" t="n">
+        <v/>
       </c>
       <c r="G63" t="n">
         <v/>
@@ -2883,10 +2887,10 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>5000000</v>
+        <v>4400000</v>
       </c>
       <c r="J63" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2896,11 +2900,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2921,10 +2925,10 @@
         <v/>
       </c>
       <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>5000000</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3386000</v>
       </c>
     </row>
     <row r="65">
@@ -2934,11 +2938,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2959,7 +2963,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>7000000</v>
+        <v>1600000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -2972,11 +2976,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2987,10 +2991,8 @@
       <c r="E66" t="n">
         <v/>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F66" t="n">
+        <v/>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -2999,10 +3001,10 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="J66" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3012,11 +3014,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3027,10 +3029,8 @@
       <c r="E67" t="n">
         <v/>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0848708885</t>
-        </is>
+      <c r="F67" t="n">
+        <v/>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -3039,7 +3039,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3052,11 +3052,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3067,8 +3067,10 @@
       <c r="E68" t="n">
         <v/>
       </c>
-      <c r="F68" t="n">
-        <v/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0369473448</t>
+        </is>
       </c>
       <c r="G68" t="n">
         <v/>
@@ -3077,10 +3079,10 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J68" t="n">
-        <v>25000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="69">
@@ -3090,11 +3092,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3105,10 +3107,8 @@
       <c r="E69" t="n">
         <v/>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0964945901</t>
-        </is>
+      <c r="F69" t="n">
+        <v/>
       </c>
       <c r="G69" t="n">
         <v/>
@@ -3117,10 +3117,10 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>25000000</v>
+        <v>5000000</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>3386000</v>
       </c>
     </row>
     <row r="70">
@@ -3130,11 +3130,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3145,10 +3145,8 @@
       <c r="E70" t="n">
         <v/>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0326608620</t>
-        </is>
+      <c r="F70" t="n">
+        <v/>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -3157,7 +3155,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>30000000</v>
+        <v>7000000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3170,11 +3168,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3187,7 +3185,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3197,10 +3195,10 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="72">
@@ -3210,11 +3208,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3227,7 +3225,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3237,7 +3235,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>3900000</v>
+        <v>4000000</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3250,11 +3248,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3263,12 +3261,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>9417002720</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>0374112377</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F73" t="n">
+        <v/>
       </c>
       <c r="G73" t="n">
         <v/>
@@ -3277,10 +3273,10 @@
         <v/>
       </c>
       <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>25000000</v>
-      </c>
-      <c r="J73" t="n">
-        <v>12000000</v>
       </c>
     </row>
     <row r="74">
@@ -3290,11 +3286,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3303,23 +3299,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>94197013583</v>
+        <v/>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G74" t="n">
         <v/>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H74" t="n">
+        <v/>
       </c>
       <c r="I74" t="n">
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3332,11 +3326,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3349,7 +3343,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3359,7 +3353,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>3700000</v>
+        <v>30000000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3372,11 +3366,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3387,8 +3381,10 @@
       <c r="E76" t="n">
         <v/>
       </c>
-      <c r="F76" t="n">
-        <v/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0386084494</t>
+        </is>
       </c>
       <c r="G76" t="n">
         <v/>
@@ -3397,7 +3393,7 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3410,11 +3406,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3425,8 +3421,10 @@
       <c r="E77" t="n">
         <v/>
       </c>
-      <c r="F77" t="n">
-        <v/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0365658917</t>
+        </is>
       </c>
       <c r="G77" t="n">
         <v/>
@@ -3435,7 +3433,7 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>25000000</v>
+        <v>3900000</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3448,11 +3446,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3461,11 +3459,11 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v/>
+        <v>9417002720</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3475,7 +3473,7 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="J78" t="n">
         <v>12000000</v>
@@ -3488,11 +3486,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3501,19 +3499,23 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v/>
-      </c>
-      <c r="F79" t="n">
-        <v/>
+        <v>94197013583</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0977825701</t>
+        </is>
       </c>
       <c r="G79" t="n">
         <v/>
       </c>
-      <c r="H79" t="n">
-        <v/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
       <c r="I79" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3526,11 +3528,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3541,8 +3543,10 @@
       <c r="E80" t="n">
         <v/>
       </c>
-      <c r="F80" t="n">
-        <v/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0376680568</t>
+        </is>
       </c>
       <c r="G80" t="n">
         <v/>
@@ -3551,7 +3555,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>3000000</v>
+        <v>3700000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3564,11 +3568,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3589,7 +3593,7 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>45000000</v>
+        <v>2000000</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3602,11 +3606,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3627,10 +3631,10 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>15000000</v>
+        <v>25000000</v>
       </c>
       <c r="J82" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3640,11 +3644,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3655,8 +3659,10 @@
       <c r="E83" t="n">
         <v/>
       </c>
-      <c r="F83" t="n">
-        <v/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G83" t="n">
         <v/>
@@ -3665,10 +3671,10 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>25000000</v>
+        <v>5000000</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="84">
@@ -3678,11 +3684,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3703,7 +3709,7 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3716,11 +3722,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3741,7 +3747,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3754,11 +3760,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3779,10 +3785,10 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>15000000</v>
+        <v>45000000</v>
       </c>
       <c r="J86" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3792,11 +3798,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3817,10 +3823,10 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>50000000</v>
+        <v>15000000</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="88">
@@ -3830,11 +3836,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3845,10 +3851,8 @@
       <c r="E88" t="n">
         <v/>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F88" t="n">
+        <v/>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -3857,10 +3861,10 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>85000000</v>
+        <v>25000000</v>
       </c>
       <c r="J88" t="n">
-        <v>30000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3870,11 +3874,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3895,7 +3899,7 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>70000000</v>
+        <v>25000000</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3908,11 +3912,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3933,10 +3937,10 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="J90" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3946,11 +3950,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3971,10 +3975,10 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>1000000</v>
+        <v>15000000</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="92">
@@ -3984,11 +3988,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4009,7 +4013,7 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>1500000</v>
+        <v>50000000</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4022,11 +4026,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4037,8 +4041,10 @@
       <c r="E93" t="n">
         <v/>
       </c>
-      <c r="F93" t="n">
-        <v/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -4047,10 +4053,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>10000000</v>
+        <v>85000000</v>
       </c>
       <c r="J93" t="n">
-        <v>2000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="94">
@@ -4060,11 +4066,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4085,10 +4091,10 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>18900000</v>
+        <v>70000000</v>
       </c>
       <c r="J94" t="n">
-        <v>7200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4098,11 +4104,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4123,10 +4129,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>13000000</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="96">
@@ -4136,11 +4142,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4161,10 +4167,10 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="J96" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4174,11 +4180,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4199,10 +4205,10 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="J97" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4212,11 +4218,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4237,10 +4243,10 @@
         <v/>
       </c>
       <c r="I98" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J98" t="n">
         <v>2000000</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4250,11 +4256,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4275,10 +4281,10 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>7000000</v>
+        <v>18900000</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>7200000</v>
       </c>
     </row>
     <row r="100">
@@ -4288,11 +4294,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4313,7 +4319,7 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>63000000</v>
+        <v>13000000</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4326,11 +4332,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4351,10 +4357,10 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>1200000</v>
+        <v>10000000</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="102">
@@ -4364,11 +4370,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4389,10 +4395,10 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="103">
@@ -4402,11 +4408,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4427,7 +4433,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>2300000</v>
+        <v>2000000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4440,11 +4446,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4465,7 +4471,7 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4478,11 +4484,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4503,7 +4509,7 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>2000000</v>
+        <v>63000000</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -4516,11 +4522,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4541,7 +4547,7 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>15000000</v>
+        <v>1200000</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -4554,11 +4560,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4579,7 +4585,7 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4592,11 +4598,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4617,7 +4623,7 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>9100000</v>
+        <v>2300000</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4630,11 +4636,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4655,7 +4661,7 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>5500000</v>
+        <v>2000000</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -4668,11 +4674,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4693,7 +4699,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>22000000</v>
+        <v>2000000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4706,11 +4712,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4731,7 +4737,7 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4744,11 +4750,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4769,7 +4775,7 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>110000000</v>
+        <v>5000000</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -4782,11 +4788,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4807,7 +4813,7 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>20000000</v>
+        <v>9100000</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -4820,11 +4826,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4845,7 +4851,7 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>700000</v>
+        <v>5500000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4858,11 +4864,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4883,7 +4889,7 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>53000000</v>
+        <v>22000000</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4896,11 +4902,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4911,10 +4917,8 @@
       <c r="E116" t="n">
         <v/>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F116" t="n">
+        <v/>
       </c>
       <c r="G116" t="n">
         <v/>
@@ -4923,10 +4927,10 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="J116" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -4936,11 +4940,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4961,10 +4965,10 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>5000000</v>
+        <v>110000000</v>
       </c>
       <c r="J117" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -4974,11 +4978,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4999,7 +5003,7 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>53550000</v>
+        <v>20000000</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -5012,11 +5016,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5037,10 +5041,10 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>15000000</v>
+        <v>700000</v>
       </c>
       <c r="J119" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -5050,11 +5054,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5075,7 +5079,7 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>5400000</v>
+        <v>53000000</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -5088,11 +5092,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5103,8 +5107,10 @@
       <c r="E121" t="n">
         <v/>
       </c>
-      <c r="F121" t="n">
-        <v/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G121" t="n">
         <v/>
@@ -5113,10 +5119,10 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>13000000</v>
+        <v>7000000</v>
       </c>
       <c r="J121" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="122">
@@ -5126,11 +5132,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5151,10 +5157,10 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="J122" t="n">
-        <v>1498000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="123">
@@ -5164,11 +5170,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5189,7 +5195,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>3000000</v>
+        <v>53550000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5202,11 +5208,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5227,10 +5233,10 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="J124" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="125">
@@ -5240,34 +5246,224 @@
         </is>
       </c>
       <c r="B125" t="n">
+        <v>63</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>C.Trinh</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v/>
+      </c>
+      <c r="F125" t="n">
+        <v/>
+      </c>
+      <c r="G125" t="n">
+        <v/>
+      </c>
+      <c r="H125" t="n">
+        <v/>
+      </c>
+      <c r="I125" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>62</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Lan Phương</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v/>
+      </c>
+      <c r="F126" t="n">
+        <v/>
+      </c>
+      <c r="G126" t="n">
+        <v/>
+      </c>
+      <c r="H126" t="n">
+        <v/>
+      </c>
+      <c r="I126" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>61</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>C.Hoành Ná</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v/>
+      </c>
+      <c r="F127" t="n">
+        <v/>
+      </c>
+      <c r="G127" t="n">
+        <v/>
+      </c>
+      <c r="H127" t="n">
+        <v/>
+      </c>
+      <c r="I127" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1498000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>60</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Cô Nhung</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v/>
+      </c>
+      <c r="F128" t="n">
+        <v/>
+      </c>
+      <c r="G128" t="n">
+        <v/>
+      </c>
+      <c r="H128" t="n">
+        <v/>
+      </c>
+      <c r="I128" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>59</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Quan thị Hoa</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v/>
+      </c>
+      <c r="F129" t="n">
+        <v/>
+      </c>
+      <c r="G129" t="n">
+        <v/>
+      </c>
+      <c r="H129" t="n">
+        <v/>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
         <v>58</v>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>Chị Mai</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v/>
-      </c>
-      <c r="F125" t="n">
-        <v/>
-      </c>
-      <c r="G125" t="n">
-        <v/>
-      </c>
-      <c r="H125" t="n">
-        <v/>
-      </c>
-      <c r="I125" t="n">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v/>
+      </c>
+      <c r="F130" t="n">
+        <v/>
+      </c>
+      <c r="G130" t="n">
+        <v/>
+      </c>
+      <c r="H130" t="n">
+        <v/>
+      </c>
+      <c r="I130" t="n">
         <v>1000000</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J130" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>thạch thị siêu</t>
+          <t>truương thị luyến</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,10 +495,8 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0833525730</t>
-        </is>
+      <c r="F2" t="n">
+        <v/>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -507,10 +505,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>50000000</v>
+        <v>4200000</v>
       </c>
       <c r="J2" t="n">
-        <v>26000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +518,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">tạ duy hoàng </t>
+          <t xml:space="preserve">mẹ khanh </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -545,7 +543,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -558,11 +556,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>nguyễn thị lệ trang</t>
+          <t>trương thị vẹn</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -573,10 +571,8 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0786070121</t>
-        </is>
+      <c r="F4" t="n">
+        <v/>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -585,7 +581,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -598,11 +594,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t>ngọc khanh</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -613,8 +609,10 @@
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="n">
-        <v/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0877655252</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -623,7 +621,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>7000000</v>
+        <v>1000000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -636,11 +634,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ chăm</t>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -653,7 +651,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09399259920</t>
+          <t>0342841309</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -663,7 +661,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>6000000</v>
+        <v>26000000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -676,11 +674,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mai hồng nương</t>
+          <t>đố thị ngọc thuý</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -693,7 +691,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0760377571</t>
+          <t>0348123958</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -703,10 +701,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>6000000</v>
+        <v>11000000</v>
       </c>
       <c r="J7" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -716,11 +714,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ngọc hân</t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -731,8 +729,10 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="n">
-        <v/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0833525730</t>
+        </is>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -741,10 +741,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>35000000</v>
+        <v>51500000</v>
       </c>
       <c r="J8" t="n">
-        <v>8000000</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="9">
@@ -754,11 +754,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>lan anh</t>
+          <t xml:space="preserve">tạ duy hoàng </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -769,10 +769,8 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0372781693</t>
-        </is>
+      <c r="F9" t="n">
+        <v/>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -781,7 +779,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>2800000</v>
+        <v>6000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -794,11 +792,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>lâm thị duyên</t>
+          <t>nguyễn thị lệ trang</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -809,8 +807,10 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -819,7 +819,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>500000</v>
+        <v>4000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -832,11 +832,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mạch minh tâm</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -857,7 +857,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>2300000</v>
+        <v>7000000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -870,11 +870,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần lê ngọc bảo yến </t>
+          <t>nguyễn thị mỹ chăm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -885,8 +885,10 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
-        <v/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>09399259920</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -895,7 +897,7 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -908,11 +910,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>bảo trân</t>
+          <t>mai hồng nương</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -923,8 +925,10 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0760377571</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -933,10 +937,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J13" t="n">
         <v>2000000</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -946,11 +950,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">trương thị lan </t>
+          <t>ngọc hân</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -961,10 +965,8 @@
       <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0824445443</t>
-        </is>
+      <c r="F14" t="n">
+        <v/>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -973,7 +975,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>18000000</v>
+        <v>43000000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -986,11 +988,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>thạch thị sơ ri</t>
+          <t>lan anh</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1003,7 +1005,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>034925472</t>
+          <t>0372781693</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1013,7 +1015,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>35000000</v>
+        <v>2800000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1026,11 +1028,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần thị ngọc bích </t>
+          <t>lâm thị duyên</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1041,10 +1043,8 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0777999926</t>
-        </is>
+      <c r="F16" t="n">
+        <v/>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1053,7 +1053,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1066,11 +1066,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t>mạch minh tâm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1081,10 +1081,8 @@
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0865927791</t>
-        </is>
+      <c r="F17" t="n">
+        <v/>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -1093,10 +1091,10 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>22000000</v>
+        <v>2300000</v>
       </c>
       <c r="J17" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1106,11 +1104,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>lâm thuỳ dương</t>
+          <t xml:space="preserve">trần lê ngọc bảo yến </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1121,10 +1119,8 @@
       <c r="E18" t="n">
         <v/>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0383465843</t>
-        </is>
+      <c r="F18" t="n">
+        <v/>
       </c>
       <c r="G18" t="n">
         <v/>
@@ -1133,7 +1129,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>13000000</v>
+        <v>3000000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1146,11 +1142,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>đường thị út</t>
+          <t>bảo trân</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1161,10 +1157,8 @@
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0949407389</t>
-        </is>
+      <c r="F19" t="n">
+        <v/>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1173,7 +1167,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>13000000</v>
+        <v>2000000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1186,11 +1180,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+          <t xml:space="preserve">trương thị lan </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1203,7 +1197,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0939925920</t>
+          <t>0824445443</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1213,7 +1207,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>20000000</v>
+        <v>18000000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1226,11 +1220,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>diệp thị mỹ hiền</t>
+          <t>thạch thị sơ ri</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1243,7 +1237,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0969540359</t>
+          <t>034925472</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1253,7 +1247,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>1500000</v>
+        <v>35000000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1266,11 +1260,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>đặng thị mỹ ngọc</t>
+          <t xml:space="preserve">trần thị ngọc bích </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1283,7 +1277,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0392273827</t>
+          <t>0777999926</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1293,7 +1287,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>1500000</v>
+        <v>15000000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1306,11 +1300,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1323,7 +1317,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0865927791</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1333,7 +1327,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>1600000</v>
+        <v>29000000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1346,11 +1340,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t>lâm thuỳ dương</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1363,7 +1357,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0383465843</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1373,7 +1367,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>1300000</v>
+        <v>13000000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1386,11 +1380,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t>đường thị út</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1403,7 +1397,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>0949407389</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1426,11 +1420,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1443,7 +1437,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0939925920</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1453,10 +1447,10 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>25000000</v>
+        <v>20000000</v>
       </c>
       <c r="J26" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1466,11 +1460,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t>diệp thị mỹ hiền</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1481,8 +1475,10 @@
       <c r="E27" t="n">
         <v/>
       </c>
-      <c r="F27" t="n">
-        <v/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0969540359</t>
+        </is>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -1491,10 +1487,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>15000000</v>
+        <v>1500000</v>
       </c>
       <c r="J27" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1504,11 +1500,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t>đặng thị mỹ ngọc</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1521,7 +1517,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0983432263</t>
+          <t>0392273827</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1531,7 +1527,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>1200000</v>
+        <v>1500000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1544,11 +1540,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1561,7 +1557,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>0347738370</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1571,7 +1567,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1584,11 +1580,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1601,7 +1597,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>077721995</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1611,7 +1607,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>688000</v>
+        <v>1300000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1624,11 +1620,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1639,8 +1635,10 @@
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="n">
-        <v/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0917250314</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1649,10 +1647,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>4000000</v>
+        <v>13000000</v>
       </c>
       <c r="J31" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1662,11 +1660,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1677,8 +1675,10 @@
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="n">
-        <v/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1687,7 +1687,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>800000</v>
+        <v>30000000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1700,11 +1700,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1725,10 +1725,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>3000000</v>
+        <v>26000000</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="34">
@@ -1738,11 +1738,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1753,8 +1753,10 @@
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="n">
-        <v/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0983432263</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1763,7 +1765,7 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>16500000</v>
+        <v>1200000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1776,11 +1778,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1791,8 +1793,10 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="n">
-        <v/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0908179083</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1801,7 +1805,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>21500000</v>
+        <v>1000000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1814,11 +1818,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1831,7 +1835,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0969134464</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1841,7 +1845,7 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>25000000</v>
+        <v>688000</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1854,11 +1858,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1869,10 +1873,8 @@
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0337594599</t>
-        </is>
+      <c r="F37" t="n">
+        <v/>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1881,7 +1883,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>20000000</v>
+        <v>7000000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1894,11 +1896,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1919,10 +1921,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>2850000</v>
+        <v>800000</v>
       </c>
       <c r="J38" t="n">
-        <v>5600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1932,11 +1934,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1947,10 +1949,8 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F39" t="n">
+        <v/>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1959,10 +1959,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="J39" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1972,11 +1972,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1997,10 +1997,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>22000000</v>
+        <v>16500000</v>
       </c>
       <c r="J40" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2010,11 +2010,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2025,10 +2025,8 @@
       <c r="E41" t="n">
         <v/>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F41" t="n">
+        <v/>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -2037,7 +2035,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>8000000</v>
+        <v>21500000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2050,11 +2048,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2067,7 +2065,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2077,10 +2075,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="J42" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2090,11 +2088,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2105,8 +2103,10 @@
       <c r="E43" t="n">
         <v/>
       </c>
-      <c r="F43" t="n">
-        <v/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0337594599</t>
+        </is>
       </c>
       <c r="G43" t="n">
         <v/>
@@ -2115,7 +2115,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>600000</v>
+        <v>20000000</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2128,11 +2128,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2153,10 +2153,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4850000</v>
       </c>
       <c r="J44" t="n">
-        <v>7000000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="45">
@@ -2166,11 +2166,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2181,8 +2181,10 @@
       <c r="E45" t="n">
         <v/>
       </c>
-      <c r="F45" t="n">
-        <v/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G45" t="n">
         <v/>
@@ -2191,10 +2193,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
       <c r="J45" t="n">
-        <v>10500000</v>
+        <v>13000000</v>
       </c>
     </row>
     <row r="46">
@@ -2204,11 +2206,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2229,10 +2231,10 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>24000000</v>
       </c>
       <c r="J46" t="n">
-        <v>15000000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="47">
@@ -2242,11 +2244,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2257,8 +2259,10 @@
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="n">
-        <v/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -2267,10 +2271,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="J47" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2280,11 +2284,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2295,8 +2299,10 @@
       <c r="E48" t="n">
         <v/>
       </c>
-      <c r="F48" t="n">
-        <v/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -2305,10 +2311,10 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="J48" t="n">
-        <v>7900000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2318,11 +2324,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2343,10 +2349,10 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="J49" t="n">
-        <v>16500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2356,11 +2362,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2371,10 +2377,8 @@
       <c r="E50" t="n">
         <v/>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F50" t="n">
+        <v/>
       </c>
       <c r="G50" t="n">
         <v/>
@@ -2383,10 +2387,10 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>32000000</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="51">
@@ -2396,11 +2400,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2411,10 +2415,8 @@
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>037642542</t>
-        </is>
+      <c r="F51" t="n">
+        <v/>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2423,10 +2425,10 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>1400000</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="52">
@@ -2436,11 +2438,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2451,10 +2453,8 @@
       <c r="E52" t="n">
         <v/>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0359390825</t>
-        </is>
+      <c r="F52" t="n">
+        <v/>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -2463,10 +2463,10 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="53">
@@ -2476,11 +2476,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2491,10 +2491,8 @@
       <c r="E53" t="n">
         <v/>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0384362705</t>
-        </is>
+      <c r="F53" t="n">
+        <v/>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -2503,10 +2501,10 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>30500000</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="54">
@@ -2516,11 +2514,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2531,24 +2529,20 @@
       <c r="E54" t="n">
         <v/>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0909903397</t>
-        </is>
+      <c r="F54" t="n">
+        <v/>
       </c>
       <c r="G54" t="n">
         <v/>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H54" t="n">
+        <v/>
       </c>
       <c r="I54" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="55">
@@ -2558,11 +2552,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2573,8 +2567,10 @@
       <c r="E55" t="n">
         <v/>
       </c>
-      <c r="F55" t="n">
-        <v/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0967039154</t>
+        </is>
       </c>
       <c r="G55" t="n">
         <v/>
@@ -2583,7 +2579,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>2000000</v>
+        <v>32000000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2596,11 +2592,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2611,8 +2607,10 @@
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="n">
-        <v/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>037642542</t>
+        </is>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2621,10 +2619,10 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="J56" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2634,11 +2632,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2649,8 +2647,10 @@
       <c r="E57" t="n">
         <v/>
       </c>
-      <c r="F57" t="n">
-        <v/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0359390825</t>
+        </is>
       </c>
       <c r="G57" t="n">
         <v/>
@@ -2659,7 +2659,7 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>40000000</v>
+        <v>750000</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2672,11 +2672,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2687,8 +2687,10 @@
       <c r="E58" t="n">
         <v/>
       </c>
-      <c r="F58" t="n">
-        <v/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0384362705</t>
+        </is>
       </c>
       <c r="G58" t="n">
         <v/>
@@ -2697,7 +2699,7 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>1500000</v>
+        <v>30500000</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2710,11 +2712,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2725,20 +2727,24 @@
       <c r="E59" t="n">
         <v/>
       </c>
-      <c r="F59" t="n">
-        <v/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0909903397</t>
+        </is>
       </c>
       <c r="G59" t="n">
         <v/>
       </c>
-      <c r="H59" t="n">
-        <v/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
       <c r="I59" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J59" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2748,11 +2754,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2773,7 +2779,7 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>3200000</v>
+        <v>2000000</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2786,11 +2792,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2811,7 +2817,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>2000000</v>
+        <v>400000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2824,11 +2830,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2849,7 +2855,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>34000000</v>
+        <v>40000000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2862,11 +2868,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2887,7 +2893,7 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>4400000</v>
+        <v>1500000</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2900,11 +2906,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2925,10 +2931,10 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="J64" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2938,11 +2944,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2963,7 +2969,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>1600000</v>
+        <v>3200000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -2976,11 +2982,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3001,7 +3007,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>900000</v>
+        <v>2000000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3014,11 +3020,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3039,7 +3045,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>3000000</v>
+        <v>34000000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3052,11 +3058,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3067,10 +3073,8 @@
       <c r="E68" t="n">
         <v/>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F68" t="n">
+        <v/>
       </c>
       <c r="G68" t="n">
         <v/>
@@ -3079,10 +3083,10 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>5000000</v>
+        <v>4400000</v>
       </c>
       <c r="J68" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3092,11 +3096,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3120,7 +3124,7 @@
         <v>5000000</v>
       </c>
       <c r="J69" t="n">
-        <v>3386000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3130,11 +3134,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3155,7 +3159,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>7000000</v>
+        <v>1600000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3168,11 +3172,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3183,10 +3187,8 @@
       <c r="E71" t="n">
         <v/>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F71" t="n">
+        <v/>
       </c>
       <c r="G71" t="n">
         <v/>
@@ -3195,10 +3197,10 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="J71" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3208,11 +3210,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3223,10 +3225,8 @@
       <c r="E72" t="n">
         <v/>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0848708885</t>
-        </is>
+      <c r="F72" t="n">
+        <v/>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -3235,7 +3235,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3248,11 +3248,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3263,8 +3263,10 @@
       <c r="E73" t="n">
         <v/>
       </c>
-      <c r="F73" t="n">
-        <v/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0369473448</t>
+        </is>
       </c>
       <c r="G73" t="n">
         <v/>
@@ -3273,10 +3275,10 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
       <c r="J73" t="n">
-        <v>25000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="74">
@@ -3286,11 +3288,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3301,10 +3303,8 @@
       <c r="E74" t="n">
         <v/>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>0964945901</t>
-        </is>
+      <c r="F74" t="n">
+        <v/>
       </c>
       <c r="G74" t="n">
         <v/>
@@ -3313,7 +3313,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>25000000</v>
+        <v>8386000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3326,11 +3326,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3341,10 +3341,8 @@
       <c r="E75" t="n">
         <v/>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0326608620</t>
-        </is>
+      <c r="F75" t="n">
+        <v/>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -3353,7 +3351,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>30000000</v>
+        <v>7000000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3366,11 +3364,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3383,7 +3381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3393,10 +3391,10 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="77">
@@ -3406,11 +3404,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3423,7 +3421,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3433,7 +3431,7 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>3900000</v>
+        <v>4000000</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3446,11 +3444,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3459,12 +3457,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>9417002720</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>0374112377</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F78" t="n">
+        <v/>
       </c>
       <c r="G78" t="n">
         <v/>
@@ -3476,7 +3472,7 @@
         <v>25000000</v>
       </c>
       <c r="J78" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3486,11 +3482,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3499,23 +3495,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>94197013583</v>
+        <v/>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G79" t="n">
         <v/>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H79" t="n">
+        <v/>
       </c>
       <c r="I79" t="n">
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3528,11 +3522,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3545,7 +3539,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3555,7 +3549,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>3700000</v>
+        <v>30000000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3568,11 +3562,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3583,8 +3577,10 @@
       <c r="E81" t="n">
         <v/>
       </c>
-      <c r="F81" t="n">
-        <v/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0386084494</t>
+        </is>
       </c>
       <c r="G81" t="n">
         <v/>
@@ -3593,7 +3589,7 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3606,11 +3602,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3621,8 +3617,10 @@
       <c r="E82" t="n">
         <v/>
       </c>
-      <c r="F82" t="n">
-        <v/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0365658917</t>
+        </is>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -3631,7 +3629,7 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>25000000</v>
+        <v>3900000</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3644,11 +3642,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3657,11 +3655,11 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v/>
+        <v>9417002720</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3671,10 +3669,10 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>5000000</v>
+        <v>37000000</v>
       </c>
       <c r="J83" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3684,11 +3682,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3697,19 +3695,23 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v/>
-      </c>
-      <c r="F84" t="n">
-        <v/>
+        <v>94197013583</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0977825701</t>
+        </is>
       </c>
       <c r="G84" t="n">
         <v/>
       </c>
-      <c r="H84" t="n">
-        <v/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
       <c r="I84" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3722,11 +3724,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3737,8 +3739,10 @@
       <c r="E85" t="n">
         <v/>
       </c>
-      <c r="F85" t="n">
-        <v/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0376680568</t>
+        </is>
       </c>
       <c r="G85" t="n">
         <v/>
@@ -3747,7 +3751,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>3000000</v>
+        <v>3700000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3760,11 +3764,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3785,7 +3789,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>45000000</v>
+        <v>2000000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3798,11 +3802,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3823,10 +3827,10 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>15000000</v>
+        <v>25000000</v>
       </c>
       <c r="J87" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3836,11 +3840,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3851,8 +3855,10 @@
       <c r="E88" t="n">
         <v/>
       </c>
-      <c r="F88" t="n">
-        <v/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -3861,10 +3867,10 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>25000000</v>
+        <v>8000000</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="89">
@@ -3874,11 +3880,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3899,7 +3905,7 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3912,11 +3918,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3937,7 +3943,7 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -3950,11 +3956,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3975,10 +3981,10 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>15000000</v>
+        <v>45000000</v>
       </c>
       <c r="J91" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3988,11 +3994,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4013,7 +4019,7 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>50000000</v>
+        <v>20000000</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4026,11 +4032,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4041,10 +4047,8 @@
       <c r="E93" t="n">
         <v/>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F93" t="n">
+        <v/>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -4053,10 +4057,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>85000000</v>
+        <v>25000000</v>
       </c>
       <c r="J93" t="n">
-        <v>30000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4066,11 +4070,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4091,7 +4095,7 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>70000000</v>
+        <v>25000000</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4104,11 +4108,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4129,10 +4133,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="J95" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4142,11 +4146,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4167,7 +4171,7 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>1000000</v>
+        <v>20000000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4180,11 +4184,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4205,7 +4209,7 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>1500000</v>
+        <v>50000000</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4218,11 +4222,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4233,8 +4237,10 @@
       <c r="E98" t="n">
         <v/>
       </c>
-      <c r="F98" t="n">
-        <v/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G98" t="n">
         <v/>
@@ -4243,10 +4249,10 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>10000000</v>
+        <v>115000000</v>
       </c>
       <c r="J98" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4256,11 +4262,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4281,10 +4287,10 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>18900000</v>
+        <v>70000000</v>
       </c>
       <c r="J99" t="n">
-        <v>7200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4294,11 +4300,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4319,7 +4325,7 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>13000000</v>
+        <v>1000000</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4332,11 +4338,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4357,10 +4363,10 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="J101" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4370,11 +4376,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4395,10 +4401,10 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="J102" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4408,11 +4414,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4433,7 +4439,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>2000000</v>
+        <v>12000000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4446,11 +4452,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4471,10 +4477,10 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>7000000</v>
+        <v>27700000</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>-1600000</v>
       </c>
     </row>
     <row r="105">
@@ -4484,11 +4490,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4509,7 +4515,7 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>63000000</v>
+        <v>13000000</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -4522,11 +4528,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4547,7 +4553,7 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>1200000</v>
+        <v>15000000</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -4560,11 +4566,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4585,7 +4591,7 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4598,11 +4604,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4623,7 +4629,7 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>2300000</v>
+        <v>2000000</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4636,11 +4642,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4661,7 +4667,7 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -4674,11 +4680,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4699,7 +4705,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>2000000</v>
+        <v>63000000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4712,11 +4718,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4737,7 +4743,7 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>15000000</v>
+        <v>1200000</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4750,11 +4756,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4775,7 +4781,7 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -4788,11 +4794,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4813,7 +4819,7 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>9100000</v>
+        <v>2300000</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -4826,11 +4832,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4851,7 +4857,7 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>5500000</v>
+        <v>2000000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4864,11 +4870,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4889,7 +4895,7 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>22000000</v>
+        <v>2000000</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4902,11 +4908,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4927,7 +4933,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4940,11 +4946,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4965,7 +4971,7 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>110000000</v>
+        <v>5000000</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -4978,11 +4984,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5003,7 +5009,7 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>20000000</v>
+        <v>9100000</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -5016,11 +5022,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5041,7 +5047,7 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>700000</v>
+        <v>5500000</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -5054,11 +5060,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5079,7 +5085,7 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>53000000</v>
+        <v>22000000</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -5092,11 +5098,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5107,10 +5113,8 @@
       <c r="E121" t="n">
         <v/>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F121" t="n">
+        <v/>
       </c>
       <c r="G121" t="n">
         <v/>
@@ -5119,10 +5123,10 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="J121" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5132,11 +5136,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5157,10 +5161,10 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>5000000</v>
+        <v>110000000</v>
       </c>
       <c r="J122" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5170,11 +5174,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5195,7 +5199,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>53550000</v>
+        <v>20000000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5208,11 +5212,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5233,10 +5237,10 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>15000000</v>
+        <v>700000</v>
       </c>
       <c r="J124" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5246,11 +5250,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5271,7 +5275,7 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>5400000</v>
+        <v>53000000</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5284,11 +5288,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5299,8 +5303,10 @@
       <c r="E126" t="n">
         <v/>
       </c>
-      <c r="F126" t="n">
-        <v/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G126" t="n">
         <v/>
@@ -5309,10 +5315,10 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>13000000</v>
+        <v>500000</v>
       </c>
       <c r="J126" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -5322,11 +5328,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5347,10 +5353,10 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>2500000</v>
+        <v>6000000</v>
       </c>
       <c r="J127" t="n">
-        <v>1498000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5360,11 +5366,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5385,7 +5391,7 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>3000000</v>
+        <v>53550000</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5398,11 +5404,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5423,10 +5429,10 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>17000000</v>
       </c>
       <c r="J129" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -5436,34 +5442,224 @@
         </is>
       </c>
       <c r="B130" t="n">
+        <v>63</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>C.Trinh</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v/>
+      </c>
+      <c r="F130" t="n">
+        <v/>
+      </c>
+      <c r="G130" t="n">
+        <v/>
+      </c>
+      <c r="H130" t="n">
+        <v/>
+      </c>
+      <c r="I130" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>62</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Lan Phương</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v/>
+      </c>
+      <c r="F131" t="n">
+        <v/>
+      </c>
+      <c r="G131" t="n">
+        <v/>
+      </c>
+      <c r="H131" t="n">
+        <v/>
+      </c>
+      <c r="I131" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>61</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>C.Hoành Ná</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v/>
+      </c>
+      <c r="F132" t="n">
+        <v/>
+      </c>
+      <c r="G132" t="n">
+        <v/>
+      </c>
+      <c r="H132" t="n">
+        <v/>
+      </c>
+      <c r="I132" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1498000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>60</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Cô Nhung</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v/>
+      </c>
+      <c r="F133" t="n">
+        <v/>
+      </c>
+      <c r="G133" t="n">
+        <v/>
+      </c>
+      <c r="H133" t="n">
+        <v/>
+      </c>
+      <c r="I133" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>59</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Quan thị Hoa</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v/>
+      </c>
+      <c r="F134" t="n">
+        <v/>
+      </c>
+      <c r="G134" t="n">
+        <v/>
+      </c>
+      <c r="H134" t="n">
+        <v/>
+      </c>
+      <c r="I134" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
         <v>58</v>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Chị Mai</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v/>
-      </c>
-      <c r="F130" t="n">
-        <v/>
-      </c>
-      <c r="G130" t="n">
-        <v/>
-      </c>
-      <c r="H130" t="n">
-        <v/>
-      </c>
-      <c r="I130" t="n">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v/>
+      </c>
+      <c r="F135" t="n">
+        <v/>
+      </c>
+      <c r="G135" t="n">
+        <v/>
+      </c>
+      <c r="H135" t="n">
+        <v/>
+      </c>
+      <c r="I135" t="n">
         <v>1000000</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J135" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>truương thị luyến</t>
+          <t>sơn thị chành thi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,8 +495,10 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="n">
-        <v/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0327114485</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -505,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>4200000</v>
+        <v>4000000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -518,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">mẹ khanh </t>
+          <t xml:space="preserve">triệu tú kiều </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -533,8 +535,10 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="n">
-        <v/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0974395268</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -543,7 +547,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>1000000</v>
+        <v>12000000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -556,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trương thị vẹn</t>
+          <t>lý thị thuý vi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -571,8 +575,10 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="n">
-        <v/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0396202865</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -581,7 +587,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>1500000</v>
+        <v>5000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -594,11 +600,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ngọc khanh</t>
+          <t xml:space="preserve">nguyễn thị kim phượng </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -611,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0877655252</t>
+          <t>0368976358</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -621,7 +627,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>1000000</v>
+        <v>13000000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -634,11 +640,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">đặng thị hồng hạnh </t>
+          <t>truương thị luyến</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -649,10 +655,8 @@
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0342841309</t>
-        </is>
+      <c r="F6" t="n">
+        <v/>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -661,7 +665,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>26000000</v>
+        <v>4200000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -674,11 +678,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>đố thị ngọc thuý</t>
+          <t xml:space="preserve">mẹ khanh </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -689,10 +693,8 @@
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0348123958</t>
-        </is>
+      <c r="F7" t="n">
+        <v/>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -701,7 +703,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>11000000</v>
+        <v>1000000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -714,11 +716,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>thạch thị siêu</t>
+          <t>trương thị vẹn</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -729,10 +731,8 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0833525730</t>
-        </is>
+      <c r="F8" t="n">
+        <v/>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -741,10 +741,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>51500000</v>
+        <v>1500000</v>
       </c>
       <c r="J8" t="n">
-        <v>26000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -754,11 +754,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">tạ duy hoàng </t>
+          <t>ngọc khanh</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -769,8 +769,10 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="n">
-        <v/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0877655252</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -779,7 +781,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -792,11 +794,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>nguyễn thị lệ trang</t>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -809,7 +811,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0342841309</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -819,7 +821,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>4000000</v>
+        <v>22000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -832,11 +834,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t>đố thị ngọc thuý</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -847,8 +849,10 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="n">
-        <v/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0348123958</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -857,7 +861,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>7000000</v>
+        <v>11000000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -870,11 +874,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ chăm</t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -887,7 +891,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09399259920</t>
+          <t>0833525730</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -897,10 +901,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>6000000</v>
+        <v>51500000</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="13">
@@ -910,11 +914,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>mai hồng nương</t>
+          <t xml:space="preserve">tạ duy hoàng </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -925,10 +929,8 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0760377571</t>
-        </is>
+      <c r="F13" t="n">
+        <v/>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -940,7 +942,7 @@
         <v>6000000</v>
       </c>
       <c r="J13" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -950,11 +952,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ngọc hân</t>
+          <t>nguyễn thị lệ trang</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -965,8 +967,10 @@
       <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F14" t="n">
-        <v/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -975,7 +979,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>43000000</v>
+        <v>4000000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -988,11 +992,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>lan anh</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1003,10 +1007,8 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0372781693</t>
-        </is>
+      <c r="F15" t="n">
+        <v/>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -1015,7 +1017,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>2800000</v>
+        <v>7000000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1028,11 +1030,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>lâm thị duyên</t>
+          <t>nguyễn thị mỹ chăm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1043,8 +1045,10 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="n">
-        <v/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>09399259920</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1053,7 +1057,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>500000</v>
+        <v>6000000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1066,11 +1070,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>mạch minh tâm</t>
+          <t>mai hồng nương</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1081,8 +1085,10 @@
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="n">
-        <v/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0760377571</t>
+        </is>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -1091,10 +1097,10 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>2300000</v>
+        <v>6000000</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="18">
@@ -1104,11 +1110,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần lê ngọc bảo yến </t>
+          <t>ngọc hân</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1129,7 +1135,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>3000000</v>
+        <v>43000000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1142,11 +1148,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>bảo trân</t>
+          <t>lan anh</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1157,8 +1163,10 @@
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="n">
-        <v/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0372781693</t>
+        </is>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1167,7 +1175,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>2000000</v>
+        <v>2800000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1180,11 +1188,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">trương thị lan </t>
+          <t>lâm thị duyên</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1195,10 +1203,8 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0824445443</t>
-        </is>
+      <c r="F20" t="n">
+        <v/>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1207,7 +1213,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>18000000</v>
+        <v>500000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1220,11 +1226,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>thạch thị sơ ri</t>
+          <t>mạch minh tâm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1235,10 +1241,8 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>034925472</t>
-        </is>
+      <c r="F21" t="n">
+        <v/>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1247,7 +1251,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>35000000</v>
+        <v>2300000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1260,11 +1264,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần thị ngọc bích </t>
+          <t xml:space="preserve">trần lê ngọc bảo yến </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1275,10 +1279,8 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0777999926</t>
-        </is>
+      <c r="F22" t="n">
+        <v/>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1287,7 +1289,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>15000000</v>
+        <v>3000000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1300,11 +1302,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t>bảo trân</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1315,10 +1317,8 @@
       <c r="E23" t="n">
         <v/>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0865927791</t>
-        </is>
+      <c r="F23" t="n">
+        <v/>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1327,7 +1327,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>29000000</v>
+        <v>2000000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1340,11 +1340,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>lâm thuỳ dương</t>
+          <t xml:space="preserve">trương thị lan </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0383465843</t>
+          <t>0824445443</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1367,7 +1367,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>13000000</v>
+        <v>18000000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1380,11 +1380,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>đường thị út</t>
+          <t>thạch thị sơ ri</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0949407389</t>
+          <t>034925472</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1407,7 +1407,7 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>13000000</v>
+        <v>35000000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1420,11 +1420,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+          <t xml:space="preserve">trần thị ngọc bích </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0939925920</t>
+          <t>0777999926</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1447,7 +1447,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>20000000</v>
+        <v>15000000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1460,11 +1460,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>diệp thị mỹ hiền</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0969540359</t>
+          <t>0865927791</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1487,7 +1487,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>1500000</v>
+        <v>29000000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1500,11 +1500,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>đặng thị mỹ ngọc</t>
+          <t>lâm thuỳ dương</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0392273827</t>
+          <t>0383465843</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1527,7 +1527,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>1500000</v>
+        <v>13000000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1540,11 +1540,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>đường thị út</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0949407389</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1567,7 +1567,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>1600000</v>
+        <v>13000000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1580,11 +1580,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0939925920</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1607,7 +1607,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>1300000</v>
+        <v>20000000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1620,11 +1620,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t>diệp thị mỹ hiền</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>0969540359</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1647,7 +1647,7 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>13000000</v>
+        <v>1500000</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1660,11 +1660,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>đặng thị mỹ ngọc</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0392273827</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1687,7 +1687,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>30000000</v>
+        <v>1500000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1700,11 +1700,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1715,8 +1715,10 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="n">
-        <v/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0347738370</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1725,10 +1727,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>26000000</v>
+        <v>1600000</v>
       </c>
       <c r="J33" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1738,11 +1740,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1755,7 +1757,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0983432263</t>
+          <t>077721995</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1765,7 +1767,7 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>1200000</v>
+        <v>1300000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1778,11 +1780,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1795,7 +1797,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>0917250314</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1805,7 +1807,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>1000000</v>
+        <v>13000000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1818,11 +1820,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1835,7 +1837,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0786070121</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1845,7 +1847,7 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>688000</v>
+        <v>30000000</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1858,11 +1860,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1883,10 +1885,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>7000000</v>
+        <v>26000000</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="38">
@@ -1896,11 +1898,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1911,8 +1913,10 @@
       <c r="E38" t="n">
         <v/>
       </c>
-      <c r="F38" t="n">
-        <v/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0983432263</t>
+        </is>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1921,7 +1925,7 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1934,11 +1938,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1949,8 +1953,10 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="n">
-        <v/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0908179083</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1959,7 +1965,7 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1972,11 +1978,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1987,8 +1993,10 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="n">
-        <v/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -1997,7 +2005,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>16500000</v>
+        <v>688000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2010,11 +2018,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2035,7 +2043,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>21500000</v>
+        <v>7000000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2048,11 +2056,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2063,10 +2071,8 @@
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F42" t="n">
+        <v/>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -2075,7 +2081,7 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>25000000</v>
+        <v>800000</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2088,11 +2094,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2103,10 +2109,8 @@
       <c r="E43" t="n">
         <v/>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0337594599</t>
-        </is>
+      <c r="F43" t="n">
+        <v/>
       </c>
       <c r="G43" t="n">
         <v/>
@@ -2115,7 +2119,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>20000000</v>
+        <v>3000000</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2128,11 +2132,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2153,10 +2157,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>4850000</v>
+        <v>16500000</v>
       </c>
       <c r="J44" t="n">
-        <v>3600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2166,11 +2170,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2181,10 +2185,8 @@
       <c r="E45" t="n">
         <v/>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F45" t="n">
+        <v/>
       </c>
       <c r="G45" t="n">
         <v/>
@@ -2193,10 +2195,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>12000000</v>
+        <v>21500000</v>
       </c>
       <c r="J45" t="n">
-        <v>13000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2206,11 +2208,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2221,8 +2223,10 @@
       <c r="E46" t="n">
         <v/>
       </c>
-      <c r="F46" t="n">
-        <v/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0969134464</t>
+        </is>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -2231,10 +2235,10 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>24000000</v>
+        <v>25000000</v>
       </c>
       <c r="J46" t="n">
-        <v>19000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2244,11 +2248,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2261,7 +2265,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0337594599</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2271,7 +2275,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>8000000</v>
+        <v>20000000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2284,11 +2288,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2299,10 +2303,8 @@
       <c r="E48" t="n">
         <v/>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F48" t="n">
+        <v/>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -2311,10 +2313,10 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>7000000</v>
+        <v>4850000</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="49">
@@ -2324,11 +2326,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2339,8 +2341,10 @@
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="n">
-        <v/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2349,10 +2353,10 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>600000</v>
+        <v>12000000</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>13000000</v>
       </c>
     </row>
     <row r="50">
@@ -2362,11 +2366,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2387,10 +2391,10 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>24000000</v>
       </c>
       <c r="J50" t="n">
-        <v>7000000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="51">
@@ -2400,11 +2404,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2415,8 +2419,10 @@
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="n">
-        <v/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2425,10 +2431,10 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="J51" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2438,11 +2444,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2453,8 +2459,10 @@
       <c r="E52" t="n">
         <v/>
       </c>
-      <c r="F52" t="n">
-        <v/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -2463,10 +2471,10 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="J52" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2476,11 +2484,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2501,10 +2509,10 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="J53" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2514,11 +2522,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2542,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>16500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="55">
@@ -2552,11 +2560,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2567,10 +2575,8 @@
       <c r="E55" t="n">
         <v/>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F55" t="n">
+        <v/>
       </c>
       <c r="G55" t="n">
         <v/>
@@ -2579,10 +2585,10 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>32000000</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="56">
@@ -2592,11 +2598,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2607,10 +2613,8 @@
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>037642542</t>
-        </is>
+      <c r="F56" t="n">
+        <v/>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2619,10 +2623,10 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>1400000</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="57">
@@ -2632,11 +2636,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2647,10 +2651,8 @@
       <c r="E57" t="n">
         <v/>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0359390825</t>
-        </is>
+      <c r="F57" t="n">
+        <v/>
       </c>
       <c r="G57" t="n">
         <v/>
@@ -2659,10 +2661,10 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="58">
@@ -2672,11 +2674,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2687,10 +2689,8 @@
       <c r="E58" t="n">
         <v/>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0384362705</t>
-        </is>
+      <c r="F58" t="n">
+        <v/>
       </c>
       <c r="G58" t="n">
         <v/>
@@ -2699,10 +2699,10 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>30500000</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="59">
@@ -2712,11 +2712,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2729,19 +2729,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0909903397</t>
+          <t>0967039154</t>
         </is>
       </c>
       <c r="G59" t="n">
         <v/>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H59" t="n">
+        <v/>
       </c>
       <c r="I59" t="n">
-        <v>8000000</v>
+        <v>32000000</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2754,11 +2752,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2769,8 +2767,10 @@
       <c r="E60" t="n">
         <v/>
       </c>
-      <c r="F60" t="n">
-        <v/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>037642542</t>
+        </is>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -2779,7 +2779,7 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>2000000</v>
+        <v>1400000</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2792,11 +2792,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2807,8 +2807,10 @@
       <c r="E61" t="n">
         <v/>
       </c>
-      <c r="F61" t="n">
-        <v/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0359390825</t>
+        </is>
       </c>
       <c r="G61" t="n">
         <v/>
@@ -2817,7 +2819,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>400000</v>
+        <v>750000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2830,11 +2832,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2845,8 +2847,10 @@
       <c r="E62" t="n">
         <v/>
       </c>
-      <c r="F62" t="n">
-        <v/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0384362705</t>
+        </is>
       </c>
       <c r="G62" t="n">
         <v/>
@@ -2855,7 +2859,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>40000000</v>
+        <v>30500000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2868,11 +2872,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2883,17 +2887,21 @@
       <c r="E63" t="n">
         <v/>
       </c>
-      <c r="F63" t="n">
-        <v/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0909903397</t>
+        </is>
       </c>
       <c r="G63" t="n">
         <v/>
       </c>
-      <c r="H63" t="n">
-        <v/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
       <c r="I63" t="n">
-        <v>1500000</v>
+        <v>8000000</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2906,11 +2914,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2931,7 +2939,7 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2944,11 +2952,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2969,7 +2977,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>3200000</v>
+        <v>400000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -2982,11 +2990,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3007,7 +3015,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>2000000</v>
+        <v>40000000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3020,11 +3028,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3045,7 +3053,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>34000000</v>
+        <v>1500000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3058,11 +3066,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3083,7 +3091,7 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>4400000</v>
+        <v>2500000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3096,11 +3104,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3121,7 +3129,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>5000000</v>
+        <v>3200000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3134,11 +3142,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3159,7 +3167,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3172,11 +3180,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3197,7 +3205,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>900000</v>
+        <v>34000000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3210,11 +3218,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3235,7 +3243,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>3000000</v>
+        <v>4400000</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3248,11 +3256,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3263,10 +3271,8 @@
       <c r="E73" t="n">
         <v/>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F73" t="n">
+        <v/>
       </c>
       <c r="G73" t="n">
         <v/>
@@ -3275,10 +3281,10 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>8500000</v>
+        <v>5000000</v>
       </c>
       <c r="J73" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3288,11 +3294,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3313,7 +3319,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>8386000</v>
+        <v>1600000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3326,11 +3332,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3351,7 +3357,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>7000000</v>
+        <v>900000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3364,11 +3370,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3379,10 +3385,8 @@
       <c r="E76" t="n">
         <v/>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F76" t="n">
+        <v/>
       </c>
       <c r="G76" t="n">
         <v/>
@@ -3391,10 +3395,10 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="J76" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3404,11 +3408,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3421,7 +3425,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0848708885</t>
+          <t>0369473448</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3431,10 +3435,10 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>4000000</v>
+        <v>8500000</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="78">
@@ -3444,11 +3448,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3469,7 +3473,7 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>25000000</v>
+        <v>8386000</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -3482,11 +3486,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3497,10 +3501,8 @@
       <c r="E79" t="n">
         <v/>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0964945901</t>
-        </is>
+      <c r="F79" t="n">
+        <v/>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -3509,7 +3511,7 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>25000000</v>
+        <v>7000000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3522,11 +3524,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3539,7 +3541,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0326608620</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3549,10 +3551,10 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="81">
@@ -3562,11 +3564,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3579,7 +3581,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3589,7 +3591,7 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3602,11 +3604,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3617,10 +3619,8 @@
       <c r="E82" t="n">
         <v/>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>0365658917</t>
-        </is>
+      <c r="F82" t="n">
+        <v/>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -3629,7 +3629,7 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>3900000</v>
+        <v>25000000</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3642,11 +3642,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3655,11 +3655,11 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3669,7 +3669,7 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>37000000</v>
+        <v>25000000</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3682,11 +3682,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3695,23 +3695,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>94197013583</v>
+        <v/>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G84" t="n">
         <v/>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H84" t="n">
+        <v/>
       </c>
       <c r="I84" t="n">
-        <v>5000000</v>
+        <v>30000000</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3724,11 +3722,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3741,7 +3739,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3751,7 +3749,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>3700000</v>
+        <v>7000000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3764,11 +3762,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3779,8 +3777,10 @@
       <c r="E86" t="n">
         <v/>
       </c>
-      <c r="F86" t="n">
-        <v/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0365658917</t>
+        </is>
       </c>
       <c r="G86" t="n">
         <v/>
@@ -3789,7 +3789,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>2000000</v>
+        <v>3900000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3802,11 +3802,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3815,10 +3815,12 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v/>
-      </c>
-      <c r="F87" t="n">
-        <v/>
+        <v>9417002720</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0374112377</t>
+        </is>
       </c>
       <c r="G87" t="n">
         <v/>
@@ -3827,7 +3829,7 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>25000000</v>
+        <v>37000000</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3840,11 +3842,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3853,24 +3855,26 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v/>
+        <v>94197013583</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0977825701</t>
         </is>
       </c>
       <c r="G88" t="n">
         <v/>
       </c>
-      <c r="H88" t="n">
-        <v/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
       <c r="I88" t="n">
-        <v>8000000</v>
+        <v>5000000</v>
       </c>
       <c r="J88" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3880,11 +3884,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3895,8 +3899,10 @@
       <c r="E89" t="n">
         <v/>
       </c>
-      <c r="F89" t="n">
-        <v/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0376680568</t>
+        </is>
       </c>
       <c r="G89" t="n">
         <v/>
@@ -3905,7 +3911,7 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>2000000</v>
+        <v>3700000</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3918,11 +3924,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3943,7 +3949,7 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -3956,11 +3962,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3981,7 +3987,7 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>45000000</v>
+        <v>25000000</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -3994,11 +4000,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4009,8 +4015,10 @@
       <c r="E92" t="n">
         <v/>
       </c>
-      <c r="F92" t="n">
-        <v/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G92" t="n">
         <v/>
@@ -4019,10 +4027,10 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>20000000</v>
+        <v>8000000</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="93">
@@ -4032,11 +4040,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4057,7 +4065,7 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -4070,11 +4078,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4095,7 +4103,7 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>25000000</v>
+        <v>3000000</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4108,11 +4116,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4133,7 +4141,7 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>4000000</v>
+        <v>45000000</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -4146,11 +4154,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4184,11 +4192,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4209,7 +4217,7 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>50000000</v>
+        <v>25000000</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4222,11 +4230,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4237,10 +4245,8 @@
       <c r="E98" t="n">
         <v/>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F98" t="n">
+        <v/>
       </c>
       <c r="G98" t="n">
         <v/>
@@ -4249,7 +4255,7 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>115000000</v>
+        <v>25000000</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -4262,11 +4268,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4287,7 +4293,7 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>70000000</v>
+        <v>4000000</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -4300,11 +4306,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4325,7 +4331,7 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>1000000</v>
+        <v>20000000</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4338,11 +4344,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4363,7 +4369,7 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>1000000</v>
+        <v>50000000</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -4376,11 +4382,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4391,8 +4397,10 @@
       <c r="E102" t="n">
         <v/>
       </c>
-      <c r="F102" t="n">
-        <v/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G102" t="n">
         <v/>
@@ -4401,7 +4409,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>1500000</v>
+        <v>115000000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4414,11 +4422,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4439,7 +4447,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>12000000</v>
+        <v>70000000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4452,11 +4460,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4477,10 +4485,10 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>27700000</v>
+        <v>1000000</v>
       </c>
       <c r="J104" t="n">
-        <v>-1600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4490,11 +4498,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4515,7 +4523,7 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>13000000</v>
+        <v>1000000</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -4528,11 +4536,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4553,7 +4561,7 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>15000000</v>
+        <v>1500000</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -4566,11 +4574,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4591,7 +4599,7 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>10000000</v>
+        <v>12000000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4604,11 +4612,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4629,10 +4637,10 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>2000000</v>
+        <v>27700000</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>-1600000</v>
       </c>
     </row>
     <row r="109">
@@ -4642,11 +4650,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4667,7 +4675,7 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>7000000</v>
+        <v>13000000</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -4680,11 +4688,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4705,7 +4713,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>63000000</v>
+        <v>15000000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4718,11 +4726,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4743,7 +4751,7 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>1200000</v>
+        <v>10000000</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4756,11 +4764,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4794,11 +4802,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4819,7 +4827,7 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>2300000</v>
+        <v>7000000</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -4832,11 +4840,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4857,7 +4865,7 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>2000000</v>
+        <v>63000000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4870,11 +4878,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4895,7 +4903,7 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>2000000</v>
+        <v>1200000</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4908,11 +4916,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4933,7 +4941,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4946,11 +4954,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4971,7 +4979,7 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>5000000</v>
+        <v>2300000</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -4984,11 +4992,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5009,7 +5017,7 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>9100000</v>
+        <v>2000000</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -5022,11 +5030,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5047,7 +5055,7 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>5500000</v>
+        <v>2000000</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -5060,11 +5068,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5085,7 +5093,7 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>22000000</v>
+        <v>15000000</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -5098,11 +5106,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5123,7 +5131,7 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -5136,11 +5144,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5161,7 +5169,7 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>110000000</v>
+        <v>9100000</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -5174,11 +5182,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5199,7 +5207,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>20000000</v>
+        <v>5500000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5212,11 +5220,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5237,7 +5245,7 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>700000</v>
+        <v>22000000</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -5250,11 +5258,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5275,7 +5283,7 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>53000000</v>
+        <v>4000000</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5288,11 +5296,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5303,10 +5311,8 @@
       <c r="E126" t="n">
         <v/>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F126" t="n">
+        <v/>
       </c>
       <c r="G126" t="n">
         <v/>
@@ -5315,7 +5321,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>500000</v>
+        <v>110000000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5328,11 +5334,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5353,7 +5359,7 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>6000000</v>
+        <v>20000000</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -5366,11 +5372,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5391,7 +5397,7 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>53550000</v>
+        <v>700000</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5404,11 +5410,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5429,7 +5435,7 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>17000000</v>
+        <v>53000000</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -5442,11 +5448,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5457,8 +5463,10 @@
       <c r="E130" t="n">
         <v/>
       </c>
-      <c r="F130" t="n">
-        <v/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G130" t="n">
         <v/>
@@ -5467,7 +5475,7 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>5400000</v>
+        <v>500000</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -5480,11 +5488,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5505,7 +5513,7 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>18000000</v>
+        <v>6000000</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -5518,11 +5526,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5543,10 +5551,10 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>2500000</v>
+        <v>53550000</v>
       </c>
       <c r="J132" t="n">
-        <v>1498000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -5556,11 +5564,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5581,7 +5589,7 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>3000000</v>
+        <v>17000000</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -5594,11 +5602,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>C.Trinh</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5619,7 +5627,7 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>10000000</v>
+        <v>5400000</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -5632,34 +5640,186 @@
         </is>
       </c>
       <c r="B135" t="n">
+        <v>62</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Lan Phương</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v/>
+      </c>
+      <c r="F135" t="n">
+        <v/>
+      </c>
+      <c r="G135" t="n">
+        <v/>
+      </c>
+      <c r="H135" t="n">
+        <v/>
+      </c>
+      <c r="I135" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>61</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>C.Hoành Ná</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v/>
+      </c>
+      <c r="F136" t="n">
+        <v/>
+      </c>
+      <c r="G136" t="n">
+        <v/>
+      </c>
+      <c r="H136" t="n">
+        <v/>
+      </c>
+      <c r="I136" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1498000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>60</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Cô Nhung</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v/>
+      </c>
+      <c r="F137" t="n">
+        <v/>
+      </c>
+      <c r="G137" t="n">
+        <v/>
+      </c>
+      <c r="H137" t="n">
+        <v/>
+      </c>
+      <c r="I137" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>59</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Quan thị Hoa</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v/>
+      </c>
+      <c r="F138" t="n">
+        <v/>
+      </c>
+      <c r="G138" t="n">
+        <v/>
+      </c>
+      <c r="H138" t="n">
+        <v/>
+      </c>
+      <c r="I138" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
         <v>58</v>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Chị Mai</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v/>
-      </c>
-      <c r="F135" t="n">
-        <v/>
-      </c>
-      <c r="G135" t="n">
-        <v/>
-      </c>
-      <c r="H135" t="n">
-        <v/>
-      </c>
-      <c r="I135" t="n">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v/>
+      </c>
+      <c r="F139" t="n">
+        <v/>
+      </c>
+      <c r="G139" t="n">
+        <v/>
+      </c>
+      <c r="H139" t="n">
+        <v/>
+      </c>
+      <c r="I139" t="n">
         <v>1000000</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J139" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sơn thị chành thi</t>
+          <t>nguyễn thanh tuyền</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0327114485</t>
+          <t>0903794252</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">triệu tú kiều </t>
+          <t>sơn thị chành thi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0974395268</t>
+          <t>0327114485</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,7 +547,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>12000000</v>
+        <v>4000000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lý thị thuý vi</t>
+          <t xml:space="preserve">triệu tú kiều </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0396202865</t>
+          <t>0974395268</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,7 +587,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -600,11 +600,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị kim phượng </t>
+          <t>lý thị thuý vi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0368976358</t>
+          <t>0396202865</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,7 +627,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>13000000</v>
+        <v>5000000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>truương thị luyến</t>
+          <t xml:space="preserve">nguyễn thị kim phượng </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -655,8 +655,10 @@
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="n">
-        <v/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0368976358</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -665,7 +667,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>4200000</v>
+        <v>13000000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -678,11 +680,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">mẹ khanh </t>
+          <t>truương thị luyến</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -703,7 +705,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>1000000</v>
+        <v>4200000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -716,11 +718,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>trương thị vẹn</t>
+          <t xml:space="preserve">mẹ khanh </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -741,7 +743,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -754,11 +756,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ngọc khanh</t>
+          <t>trương thị vẹn</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -769,10 +771,8 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0877655252</t>
-        </is>
+      <c r="F9" t="n">
+        <v/>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -781,7 +781,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -794,11 +794,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">đặng thị hồng hạnh </t>
+          <t>ngọc khanh</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0342841309</t>
+          <t>0877655252</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -821,7 +821,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>22000000</v>
+        <v>1000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -834,11 +834,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>đố thị ngọc thuý</t>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0348123958</t>
+          <t>0342841309</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -861,7 +861,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>11000000</v>
+        <v>22000000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -874,11 +874,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>thạch thị siêu</t>
+          <t>đố thị ngọc thuý</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0833525730</t>
+          <t>0348123958</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -901,10 +901,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>51500000</v>
+        <v>11000000</v>
       </c>
       <c r="J12" t="n">
-        <v>26000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -914,11 +914,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">tạ duy hoàng </t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -929,8 +929,10 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0833525730</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -939,10 +941,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>6000000</v>
+        <v>51500000</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="14">
@@ -952,11 +954,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>nguyễn thị lệ trang</t>
+          <t xml:space="preserve">tạ duy hoàng </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -967,10 +969,8 @@
       <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0786070121</t>
-        </is>
+      <c r="F14" t="n">
+        <v/>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -979,7 +979,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -992,11 +992,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t>nguyễn thị lệ trang</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1007,8 +1007,10 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="n">
-        <v/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -1017,7 +1019,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1030,11 +1032,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ chăm</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1045,10 +1047,8 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>09399259920</t>
-        </is>
+      <c r="F16" t="n">
+        <v/>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1057,7 +1057,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1070,11 +1070,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>mai hồng nương</t>
+          <t>nguyễn thị mỹ chăm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0760377571</t>
+          <t>09399259920</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1100,7 +1100,7 @@
         <v>6000000</v>
       </c>
       <c r="J17" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1110,11 +1110,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ngọc hân</t>
+          <t>mai hồng nương</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1125,8 +1125,10 @@
       <c r="E18" t="n">
         <v/>
       </c>
-      <c r="F18" t="n">
-        <v/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0760377571</t>
+        </is>
       </c>
       <c r="G18" t="n">
         <v/>
@@ -1135,10 +1137,10 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>43000000</v>
+        <v>6000000</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="19">
@@ -1148,11 +1150,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>lan anh</t>
+          <t>ngọc hân</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1163,10 +1165,8 @@
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0372781693</t>
-        </is>
+      <c r="F19" t="n">
+        <v/>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1175,7 +1175,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>2800000</v>
+        <v>43000000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1188,11 +1188,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>lâm thị duyên</t>
+          <t>lan anh</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1203,8 +1203,10 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="n">
-        <v/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0372781693</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1213,7 +1215,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>500000</v>
+        <v>2800000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1226,11 +1228,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>mạch minh tâm</t>
+          <t>lâm thị duyên</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1251,7 +1253,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>2300000</v>
+        <v>500000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1264,11 +1266,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần lê ngọc bảo yến </t>
+          <t>mạch minh tâm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1289,7 +1291,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>3000000</v>
+        <v>2300000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1302,11 +1304,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>bảo trân</t>
+          <t xml:space="preserve">trần lê ngọc bảo yến </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1327,7 +1329,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1340,11 +1342,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">trương thị lan </t>
+          <t>bảo trân</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1355,10 +1357,8 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0824445443</t>
-        </is>
+      <c r="F24" t="n">
+        <v/>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1367,7 +1367,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1380,11 +1380,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>thạch thị sơ ri</t>
+          <t xml:space="preserve">trương thị lan </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>034925472</t>
+          <t>0824445443</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1407,7 +1407,7 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>35000000</v>
+        <v>18000000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1420,11 +1420,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần thị ngọc bích </t>
+          <t>thạch thị sơ ri</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0777999926</t>
+          <t>034925472</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1447,7 +1447,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>15000000</v>
+        <v>35000000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1460,11 +1460,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t xml:space="preserve">trần thị ngọc bích </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0865927791</t>
+          <t>0777999926</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1487,7 +1487,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>29000000</v>
+        <v>15000000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1500,11 +1500,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>lâm thuỳ dương</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0383465843</t>
+          <t>0865927791</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1527,7 +1527,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>13000000</v>
+        <v>29000000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1540,11 +1540,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>đường thị út</t>
+          <t>lâm thuỳ dương</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0949407389</t>
+          <t>0383465843</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1580,11 +1580,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+          <t>đường thị út</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0939925920</t>
+          <t>0949407389</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1607,7 +1607,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>20000000</v>
+        <v>13000000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1620,11 +1620,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>diệp thị mỹ hiền</t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0969540359</t>
+          <t>0939925920</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1647,7 +1647,7 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>1500000</v>
+        <v>20000000</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1660,11 +1660,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>đặng thị mỹ ngọc</t>
+          <t>diệp thị mỹ hiền</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0392273827</t>
+          <t>0969540359</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1700,11 +1700,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>đặng thị mỹ ngọc</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0392273827</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1727,7 +1727,7 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>1600000</v>
+        <v>1500000</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1740,11 +1740,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0347738370</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1767,7 +1767,7 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1780,11 +1780,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>077721995</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1807,7 +1807,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>13000000</v>
+        <v>1300000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1820,11 +1820,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0917250314</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1847,7 +1847,7 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>30000000</v>
+        <v>13000000</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1860,11 +1860,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1875,8 +1875,10 @@
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="n">
-        <v/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1885,10 +1887,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>26000000</v>
+        <v>30000000</v>
       </c>
       <c r="J37" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1898,11 +1900,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1913,10 +1915,8 @@
       <c r="E38" t="n">
         <v/>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0983432263</t>
-        </is>
+      <c r="F38" t="n">
+        <v/>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1925,10 +1925,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>1200000</v>
+        <v>26000000</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="39">
@@ -1938,11 +1938,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>0983432263</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1965,7 +1965,7 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1978,11 +1978,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0908179083</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2005,7 +2005,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>688000</v>
+        <v>1000000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2018,11 +2018,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2033,8 +2033,10 @@
       <c r="E41" t="n">
         <v/>
       </c>
-      <c r="F41" t="n">
-        <v/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -2043,7 +2045,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>7000000</v>
+        <v>688000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2056,11 +2058,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2081,7 +2083,7 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>800000</v>
+        <v>7000000</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2094,11 +2096,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2119,7 +2121,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>3000000</v>
+        <v>800000</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2132,11 +2134,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2157,7 +2159,7 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>16500000</v>
+        <v>3000000</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2170,11 +2172,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2195,7 +2197,7 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>21500000</v>
+        <v>16500000</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2208,11 +2210,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2223,10 +2225,8 @@
       <c r="E46" t="n">
         <v/>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F46" t="n">
+        <v/>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -2235,7 +2235,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2248,11 +2248,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0337594599</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2275,7 +2275,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>20000000</v>
+        <v>25000000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2288,11 +2288,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2303,8 +2303,10 @@
       <c r="E48" t="n">
         <v/>
       </c>
-      <c r="F48" t="n">
-        <v/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0337594599</t>
+        </is>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -2313,10 +2315,10 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>4850000</v>
+        <v>20000000</v>
       </c>
       <c r="J48" t="n">
-        <v>3600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2326,11 +2328,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2341,10 +2343,8 @@
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F49" t="n">
+        <v/>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2353,10 +2353,10 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>12000000</v>
+        <v>4850000</v>
       </c>
       <c r="J49" t="n">
-        <v>13000000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="50">
@@ -2366,11 +2366,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2381,8 +2381,10 @@
       <c r="E50" t="n">
         <v/>
       </c>
-      <c r="F50" t="n">
-        <v/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G50" t="n">
         <v/>
@@ -2391,10 +2393,10 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>24000000</v>
+        <v>12000000</v>
       </c>
       <c r="J50" t="n">
-        <v>19000000</v>
+        <v>13000000</v>
       </c>
     </row>
     <row r="51">
@@ -2404,11 +2406,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2419,10 +2421,8 @@
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F51" t="n">
+        <v/>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2431,10 +2431,10 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>8000000</v>
+        <v>24000000</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="52">
@@ -2444,11 +2444,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2471,7 +2471,7 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2484,11 +2484,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2499,8 +2499,10 @@
       <c r="E53" t="n">
         <v/>
       </c>
-      <c r="F53" t="n">
-        <v/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -2509,7 +2511,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>600000</v>
+        <v>7000000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2522,11 +2524,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2547,10 +2549,10 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="J54" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2560,11 +2562,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2588,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>10500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="56">
@@ -2598,11 +2600,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2626,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>15000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="57">
@@ -2636,11 +2638,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2664,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="58">
@@ -2674,11 +2676,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2702,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>16500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="59">
@@ -2712,11 +2714,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2727,10 +2729,8 @@
       <c r="E59" t="n">
         <v/>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F59" t="n">
+        <v/>
       </c>
       <c r="G59" t="n">
         <v/>
@@ -2739,10 +2739,10 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>32000000</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="60">
@@ -2752,11 +2752,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>037642542</t>
+          <t>0967039154</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2779,7 +2779,7 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>1400000</v>
+        <v>32000000</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2792,11 +2792,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0359390825</t>
+          <t>037642542</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2819,7 +2819,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>750000</v>
+        <v>1400000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2832,11 +2832,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0384362705</t>
+          <t>0359390825</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2859,7 +2859,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>30500000</v>
+        <v>750000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2872,11 +2872,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2889,19 +2889,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0909903397</t>
+          <t>0384362705</t>
         </is>
       </c>
       <c r="G63" t="n">
         <v/>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H63" t="n">
+        <v/>
       </c>
       <c r="I63" t="n">
-        <v>8000000</v>
+        <v>30500000</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2914,11 +2912,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2929,17 +2927,21 @@
       <c r="E64" t="n">
         <v/>
       </c>
-      <c r="F64" t="n">
-        <v/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0909903397</t>
+        </is>
       </c>
       <c r="G64" t="n">
         <v/>
       </c>
-      <c r="H64" t="n">
-        <v/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
       <c r="I64" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2952,11 +2954,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2977,7 +2979,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>400000</v>
+        <v>2000000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -2990,11 +2992,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3015,7 +3017,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>40000000</v>
+        <v>400000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3028,11 +3030,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3053,7 +3055,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>1500000</v>
+        <v>40000000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3066,11 +3068,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3091,7 +3093,7 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3104,11 +3106,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3129,7 +3131,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>3200000</v>
+        <v>2500000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3142,11 +3144,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3167,7 +3169,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>2000000</v>
+        <v>3200000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3180,11 +3182,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3205,7 +3207,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>34000000</v>
+        <v>2000000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3218,11 +3220,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3243,7 +3245,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>4400000</v>
+        <v>34000000</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3256,11 +3258,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3281,7 +3283,7 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>5000000</v>
+        <v>4400000</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3294,11 +3296,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3319,7 +3321,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>1600000</v>
+        <v>5000000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3332,11 +3334,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3357,7 +3359,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>900000</v>
+        <v>1600000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3370,11 +3372,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3395,7 +3397,7 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>3000000</v>
+        <v>900000</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3408,11 +3410,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3423,10 +3425,8 @@
       <c r="E77" t="n">
         <v/>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F77" t="n">
+        <v/>
       </c>
       <c r="G77" t="n">
         <v/>
@@ -3435,10 +3435,10 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>8500000</v>
+        <v>3000000</v>
       </c>
       <c r="J77" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3448,11 +3448,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3463,8 +3463,10 @@
       <c r="E78" t="n">
         <v/>
       </c>
-      <c r="F78" t="n">
-        <v/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0369473448</t>
+        </is>
       </c>
       <c r="G78" t="n">
         <v/>
@@ -3473,10 +3475,10 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>8386000</v>
+        <v>8500000</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="79">
@@ -3486,11 +3488,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3511,7 +3513,7 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>7000000</v>
+        <v>8386000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3524,11 +3526,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3539,10 +3541,8 @@
       <c r="E80" t="n">
         <v/>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F80" t="n">
+        <v/>
       </c>
       <c r="G80" t="n">
         <v/>
@@ -3551,10 +3551,10 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="J80" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3564,11 +3564,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0848708885</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3591,10 +3591,10 @@
         <v/>
       </c>
       <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
         <v>4000000</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3604,11 +3604,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3619,8 +3619,10 @@
       <c r="E82" t="n">
         <v/>
       </c>
-      <c r="F82" t="n">
-        <v/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0848708885</t>
+        </is>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -3629,7 +3631,7 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>25000000</v>
+        <v>4000000</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3642,11 +3644,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3657,10 +3659,8 @@
       <c r="E83" t="n">
         <v/>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>0964945901</t>
-        </is>
+      <c r="F83" t="n">
+        <v/>
       </c>
       <c r="G83" t="n">
         <v/>
@@ -3682,11 +3682,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0326608620</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3709,7 +3709,7 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>30000000</v>
+        <v>25000000</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3722,11 +3722,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3749,7 +3749,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>7000000</v>
+        <v>30000000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3762,11 +3762,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3789,7 +3789,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>3900000</v>
+        <v>7000000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3802,11 +3802,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3815,11 +3815,11 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0365658917</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3829,7 +3829,7 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>37000000</v>
+        <v>3900000</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3842,11 +3842,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3855,23 +3855,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>94197013583</v>
+        <v>9417002720</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G88" t="n">
         <v/>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H88" t="n">
+        <v/>
       </c>
       <c r="I88" t="n">
-        <v>5000000</v>
+        <v>37000000</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3884,11 +3882,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3897,21 +3895,23 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v/>
+        <v>94197013583</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0977825701</t>
         </is>
       </c>
       <c r="G89" t="n">
         <v/>
       </c>
-      <c r="H89" t="n">
-        <v/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
       <c r="I89" t="n">
-        <v>3700000</v>
+        <v>5000000</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3924,11 +3924,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3939,8 +3939,10 @@
       <c r="E90" t="n">
         <v/>
       </c>
-      <c r="F90" t="n">
-        <v/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0376680568</t>
+        </is>
       </c>
       <c r="G90" t="n">
         <v/>
@@ -3949,7 +3951,7 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>2000000</v>
+        <v>3700000</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -3962,11 +3964,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3987,7 +3989,7 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4000,11 +4002,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4015,10 +4017,8 @@
       <c r="E92" t="n">
         <v/>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>0387888961</t>
-        </is>
+      <c r="F92" t="n">
+        <v/>
       </c>
       <c r="G92" t="n">
         <v/>
@@ -4027,10 +4027,10 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>8000000</v>
+        <v>25000000</v>
       </c>
       <c r="J92" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4040,11 +4040,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4055,8 +4055,10 @@
       <c r="E93" t="n">
         <v/>
       </c>
-      <c r="F93" t="n">
-        <v/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -4065,10 +4067,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="94">
@@ -4078,11 +4080,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4103,7 +4105,7 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4116,11 +4118,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4141,7 +4143,7 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>45000000</v>
+        <v>3000000</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -4154,11 +4156,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4179,7 +4181,7 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>20000000</v>
+        <v>45000000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4192,11 +4194,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4217,7 +4219,7 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>25000000</v>
+        <v>20000000</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4230,11 +4232,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4268,11 +4270,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4293,7 +4295,7 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -4306,11 +4308,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4331,7 +4333,7 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>20000000</v>
+        <v>4000000</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4344,11 +4346,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4369,7 +4371,7 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>50000000</v>
+        <v>20000000</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -4382,11 +4384,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4397,10 +4399,8 @@
       <c r="E102" t="n">
         <v/>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F102" t="n">
+        <v/>
       </c>
       <c r="G102" t="n">
         <v/>
@@ -4409,7 +4409,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>115000000</v>
+        <v>50000000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4422,11 +4422,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4437,8 +4437,10 @@
       <c r="E103" t="n">
         <v/>
       </c>
-      <c r="F103" t="n">
-        <v/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G103" t="n">
         <v/>
@@ -4447,7 +4449,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>70000000</v>
+        <v>115000000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4460,11 +4462,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4485,7 +4487,7 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>1000000</v>
+        <v>70000000</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4498,11 +4500,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4536,11 +4538,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4561,7 +4563,7 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -4574,11 +4576,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4599,7 +4601,7 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>12000000</v>
+        <v>1500000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4612,11 +4614,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4637,10 +4639,10 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>27700000</v>
+        <v>12000000</v>
       </c>
       <c r="J108" t="n">
-        <v>-1600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4650,11 +4652,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4675,10 +4677,10 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>13000000</v>
+        <v>27700000</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>-1600000</v>
       </c>
     </row>
     <row r="110">
@@ -4688,11 +4690,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4713,7 +4715,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>15000000</v>
+        <v>13000000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4726,11 +4728,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4751,7 +4753,7 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4764,11 +4766,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4789,7 +4791,7 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -4802,11 +4804,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4827,7 +4829,7 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -4840,11 +4842,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4865,7 +4867,7 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>63000000</v>
+        <v>7000000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4878,11 +4880,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4903,7 +4905,7 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>1200000</v>
+        <v>63000000</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4916,11 +4918,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4941,7 +4943,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>2000000</v>
+        <v>1200000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4954,11 +4956,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4979,7 +4981,7 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>2300000</v>
+        <v>2000000</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -4992,11 +4994,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5017,7 +5019,7 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>2000000</v>
+        <v>2300000</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -5030,11 +5032,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5068,11 +5070,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5093,7 +5095,7 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -5106,11 +5108,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5131,7 +5133,7 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>5000000</v>
+        <v>15000000</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -5144,11 +5146,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5169,7 +5171,7 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>9100000</v>
+        <v>5000000</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -5182,11 +5184,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5207,7 +5209,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>5500000</v>
+        <v>9100000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5220,11 +5222,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5245,7 +5247,7 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>22000000</v>
+        <v>5500000</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -5258,11 +5260,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5283,7 +5285,7 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>4000000</v>
+        <v>22000000</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5296,11 +5298,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5321,7 +5323,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>110000000</v>
+        <v>4000000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5334,11 +5336,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5359,7 +5361,7 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>20000000</v>
+        <v>110000000</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -5372,11 +5374,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5397,7 +5399,7 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>700000</v>
+        <v>20000000</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5410,11 +5412,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5435,7 +5437,7 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>53000000</v>
+        <v>700000</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -5448,11 +5450,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5463,10 +5465,8 @@
       <c r="E130" t="n">
         <v/>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F130" t="n">
+        <v/>
       </c>
       <c r="G130" t="n">
         <v/>
@@ -5475,7 +5475,7 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>500000</v>
+        <v>53000000</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -5488,11 +5488,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5503,8 +5503,10 @@
       <c r="E131" t="n">
         <v/>
       </c>
-      <c r="F131" t="n">
-        <v/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G131" t="n">
         <v/>
@@ -5513,7 +5515,7 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>6000000</v>
+        <v>500000</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -5526,11 +5528,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5551,7 +5553,7 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>53550000</v>
+        <v>6000000</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -5564,11 +5566,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5589,7 +5591,7 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>17000000</v>
+        <v>53550000</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -5602,11 +5604,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5627,7 +5629,7 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>5400000</v>
+        <v>17000000</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -5640,11 +5642,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>C.Trinh</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5665,7 +5667,7 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>18000000</v>
+        <v>5400000</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -5678,11 +5680,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5703,10 +5705,10 @@
         <v/>
       </c>
       <c r="I136" t="n">
-        <v>2500000</v>
+        <v>18000000</v>
       </c>
       <c r="J136" t="n">
-        <v>1498000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -5716,11 +5718,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>C.Hoành Ná</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5741,10 +5743,10 @@
         <v/>
       </c>
       <c r="I137" t="n">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>1498000</v>
       </c>
     </row>
     <row r="138">
@@ -5754,11 +5756,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>Cô Nhung</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5779,7 +5781,7 @@
         <v/>
       </c>
       <c r="I138" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -5792,34 +5794,72 @@
         </is>
       </c>
       <c r="B139" t="n">
+        <v>59</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Quan thị Hoa</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v/>
+      </c>
+      <c r="F139" t="n">
+        <v/>
+      </c>
+      <c r="G139" t="n">
+        <v/>
+      </c>
+      <c r="H139" t="n">
+        <v/>
+      </c>
+      <c r="I139" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
         <v>58</v>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Chị Mai</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v/>
-      </c>
-      <c r="F139" t="n">
-        <v/>
-      </c>
-      <c r="G139" t="n">
-        <v/>
-      </c>
-      <c r="H139" t="n">
-        <v/>
-      </c>
-      <c r="I139" t="n">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v/>
+      </c>
+      <c r="F140" t="n">
+        <v/>
+      </c>
+      <c r="G140" t="n">
+        <v/>
+      </c>
+      <c r="H140" t="n">
+        <v/>
+      </c>
+      <c r="I140" t="n">
         <v>1000000</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J140" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng tại SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nguyễn thanh tuyền</t>
+          <t>dương ngọc hân</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0903794252</t>
+          <t>0352308667</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>15000000</v>
+        <v>1300000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sơn thị chành thi</t>
+          <t>nguyễn thanh tuyền</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0327114485</t>
+          <t>0903794252</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,7 +547,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">triệu tú kiều </t>
+          <t>sơn thị chành thi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0974395268</t>
+          <t>0327114485</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,7 +587,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>12000000</v>
+        <v>4000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -600,11 +600,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>lý thị thuý vi</t>
+          <t xml:space="preserve">triệu tú kiều </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0396202865</t>
+          <t>0974395268</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,7 +627,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị kim phượng </t>
+          <t>lý thị thuý vi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0368976358</t>
+          <t>0396202865</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -667,7 +667,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>13000000</v>
+        <v>5000000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -680,11 +680,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>truương thị luyến</t>
+          <t xml:space="preserve">nguyễn thị kim phượng </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -695,8 +695,10 @@
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="n">
-        <v/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0368976358</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -705,7 +707,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>4200000</v>
+        <v>13000000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -718,11 +720,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">mẹ khanh </t>
+          <t>truương thị luyến</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -743,7 +745,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>1000000</v>
+        <v>4200000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -756,11 +758,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>trương thị vẹn</t>
+          <t xml:space="preserve">mẹ khanh </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -781,7 +783,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -794,11 +796,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ngọc khanh</t>
+          <t>trương thị vẹn</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -809,10 +811,8 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0877655252</t>
-        </is>
+      <c r="F10" t="n">
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -821,7 +821,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -834,11 +834,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">đặng thị hồng hạnh </t>
+          <t>ngọc khanh</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0342841309</t>
+          <t>0877655252</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -861,7 +861,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>22000000</v>
+        <v>1000000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -874,11 +874,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>đố thị ngọc thuý</t>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0348123958</t>
+          <t>0342841309</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -901,7 +901,7 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>11000000</v>
+        <v>22000000</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -914,11 +914,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>thạch thị siêu</t>
+          <t>đố thị ngọc thuý</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0833525730</t>
+          <t>0348123958</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -941,10 +941,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>51500000</v>
+        <v>11000000</v>
       </c>
       <c r="J13" t="n">
-        <v>26000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -954,11 +954,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">tạ duy hoàng </t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -969,8 +969,10 @@
       <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F14" t="n">
-        <v/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0833525730</t>
+        </is>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -979,10 +981,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>6000000</v>
+        <v>51500000</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="15">
@@ -992,11 +994,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>nguyễn thị lệ trang</t>
+          <t xml:space="preserve">tạ duy hoàng </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1007,10 +1009,8 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0786070121</t>
-        </is>
+      <c r="F15" t="n">
+        <v/>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -1019,7 +1019,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1032,11 +1032,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t>nguyễn thị lệ trang</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1047,8 +1047,10 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="n">
-        <v/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1057,7 +1059,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1070,11 +1072,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ chăm</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1085,10 +1087,8 @@
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>09399259920</t>
-        </is>
+      <c r="F17" t="n">
+        <v/>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -1097,7 +1097,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1110,11 +1110,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>mai hồng nương</t>
+          <t>nguyễn thị mỹ chăm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0760377571</t>
+          <t>09399259920</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1140,7 +1140,7 @@
         <v>6000000</v>
       </c>
       <c r="J18" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1150,11 +1150,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ngọc hân</t>
+          <t>mai hồng nương</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1165,8 +1165,10 @@
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="n">
-        <v/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0760377571</t>
+        </is>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1175,10 +1177,10 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>43000000</v>
+        <v>6000000</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="20">
@@ -1188,11 +1190,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>lan anh</t>
+          <t>ngọc hân</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1203,10 +1205,8 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0372781693</t>
-        </is>
+      <c r="F20" t="n">
+        <v/>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1215,7 +1215,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>2800000</v>
+        <v>43000000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1228,11 +1228,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>lâm thị duyên</t>
+          <t>lan anh</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1243,8 +1243,10 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="n">
-        <v/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0372781693</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1253,7 +1255,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>500000</v>
+        <v>2800000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1266,11 +1268,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>mạch minh tâm</t>
+          <t>lâm thị duyên</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1291,7 +1293,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>2300000</v>
+        <v>500000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1304,11 +1306,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần lê ngọc bảo yến </t>
+          <t>mạch minh tâm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1329,7 +1331,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>3000000</v>
+        <v>2300000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1342,11 +1344,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>bảo trân</t>
+          <t xml:space="preserve">trần lê ngọc bảo yến </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1367,7 +1369,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1380,11 +1382,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">trương thị lan </t>
+          <t>bảo trân</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1395,10 +1397,8 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0824445443</t>
-        </is>
+      <c r="F25" t="n">
+        <v/>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1407,7 +1407,7 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1420,11 +1420,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>thạch thị sơ ri</t>
+          <t xml:space="preserve">trương thị lan </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>034925472</t>
+          <t>0824445443</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1447,7 +1447,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>35000000</v>
+        <v>18000000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1460,11 +1460,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần thị ngọc bích </t>
+          <t>thạch thị sơ ri</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0777999926</t>
+          <t>034925472</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1487,7 +1487,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>15000000</v>
+        <v>35000000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1500,11 +1500,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t xml:space="preserve">trần thị ngọc bích </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0865927791</t>
+          <t>0777999926</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1527,7 +1527,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>29000000</v>
+        <v>15000000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1540,11 +1540,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>lâm thuỳ dương</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0383465843</t>
+          <t>0865927791</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1567,7 +1567,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>13000000</v>
+        <v>29000000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1580,11 +1580,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>đường thị út</t>
+          <t>lâm thuỳ dương</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0949407389</t>
+          <t>0383465843</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1620,11 +1620,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+          <t>đường thị út</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0939925920</t>
+          <t>0949407389</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1647,7 +1647,7 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>20000000</v>
+        <v>13000000</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1660,11 +1660,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>diệp thị mỹ hiền</t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0969540359</t>
+          <t>0939925920</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1687,7 +1687,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>1500000</v>
+        <v>20000000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1700,11 +1700,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>đặng thị mỹ ngọc</t>
+          <t>diệp thị mỹ hiền</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0392273827</t>
+          <t>0969540359</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1740,11 +1740,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>đặng thị mỹ ngọc</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0392273827</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1767,7 +1767,7 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>1600000</v>
+        <v>1500000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1780,11 +1780,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0347738370</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1807,7 +1807,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1820,11 +1820,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>077721995</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1847,7 +1847,7 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>13000000</v>
+        <v>1300000</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1860,11 +1860,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0917250314</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1887,7 +1887,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>30000000</v>
+        <v>13000000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1900,11 +1900,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1915,8 +1915,10 @@
       <c r="E38" t="n">
         <v/>
       </c>
-      <c r="F38" t="n">
-        <v/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1925,10 +1927,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>26000000</v>
+        <v>30000000</v>
       </c>
       <c r="J38" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1938,11 +1940,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1953,10 +1955,8 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0983432263</t>
-        </is>
+      <c r="F39" t="n">
+        <v/>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1965,10 +1965,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>1200000</v>
+        <v>26000000</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="40">
@@ -1978,11 +1978,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>0983432263</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2005,7 +2005,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2018,11 +2018,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0908179083</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2045,7 +2045,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>688000</v>
+        <v>1000000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2058,11 +2058,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2073,8 +2073,10 @@
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="n">
-        <v/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -2083,7 +2085,7 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>7000000</v>
+        <v>688000</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2096,11 +2098,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2121,7 +2123,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>800000</v>
+        <v>7000000</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2134,11 +2136,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2159,7 +2161,7 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>3000000</v>
+        <v>800000</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2172,11 +2174,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2197,7 +2199,7 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>16500000</v>
+        <v>3000000</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2210,11 +2212,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2235,7 +2237,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>21500000</v>
+        <v>16500000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2248,11 +2250,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2263,10 +2265,8 @@
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F47" t="n">
+        <v/>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -2275,7 +2275,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2288,11 +2288,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0337594599</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2315,7 +2315,7 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>20000000</v>
+        <v>25000000</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2328,11 +2328,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2343,8 +2343,10 @@
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="n">
-        <v/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0337594599</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2353,10 +2355,10 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>4850000</v>
+        <v>20000000</v>
       </c>
       <c r="J49" t="n">
-        <v>3600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2366,11 +2368,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2381,10 +2383,8 @@
       <c r="E50" t="n">
         <v/>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F50" t="n">
+        <v/>
       </c>
       <c r="G50" t="n">
         <v/>
@@ -2393,10 +2393,10 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>12000000</v>
+        <v>4850000</v>
       </c>
       <c r="J50" t="n">
-        <v>13000000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="51">
@@ -2406,11 +2406,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2421,8 +2421,10 @@
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="n">
-        <v/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2431,10 +2433,10 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>24000000</v>
+        <v>12000000</v>
       </c>
       <c r="J51" t="n">
-        <v>19000000</v>
+        <v>13000000</v>
       </c>
     </row>
     <row r="52">
@@ -2444,11 +2446,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2459,10 +2461,8 @@
       <c r="E52" t="n">
         <v/>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F52" t="n">
+        <v/>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -2471,10 +2471,10 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>8000000</v>
+        <v>24000000</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="53">
@@ -2484,11 +2484,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2511,7 +2511,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2524,11 +2524,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2539,8 +2539,10 @@
       <c r="E54" t="n">
         <v/>
       </c>
-      <c r="F54" t="n">
-        <v/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G54" t="n">
         <v/>
@@ -2549,7 +2551,7 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>600000</v>
+        <v>7000000</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2562,11 +2564,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2587,10 +2589,10 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="J55" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2600,11 +2602,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2628,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>10500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="57">
@@ -2638,11 +2640,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2666,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>15000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="58">
@@ -2676,11 +2678,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2704,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="59">
@@ -2714,11 +2716,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2742,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>16500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="60">
@@ -2752,11 +2754,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2767,10 +2769,8 @@
       <c r="E60" t="n">
         <v/>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F60" t="n">
+        <v/>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -2779,10 +2779,10 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>32000000</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="61">
@@ -2792,11 +2792,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>037642542</t>
+          <t>0967039154</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2819,7 +2819,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>1400000</v>
+        <v>32000000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2832,11 +2832,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0359390825</t>
+          <t>037642542</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2859,7 +2859,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>750000</v>
+        <v>1400000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2872,11 +2872,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0384362705</t>
+          <t>0359390825</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2899,7 +2899,7 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>30500000</v>
+        <v>750000</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2912,11 +2912,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2929,19 +2929,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0909903397</t>
+          <t>0384362705</t>
         </is>
       </c>
       <c r="G64" t="n">
         <v/>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H64" t="n">
+        <v/>
       </c>
       <c r="I64" t="n">
-        <v>8000000</v>
+        <v>30500000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2954,11 +2952,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2969,17 +2967,21 @@
       <c r="E65" t="n">
         <v/>
       </c>
-      <c r="F65" t="n">
-        <v/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0909903397</t>
+        </is>
       </c>
       <c r="G65" t="n">
         <v/>
       </c>
-      <c r="H65" t="n">
-        <v/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
       <c r="I65" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -2992,11 +2994,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3017,7 +3019,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>400000</v>
+        <v>2000000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3030,11 +3032,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3055,7 +3057,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>40000000</v>
+        <v>400000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3068,11 +3070,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3093,7 +3095,7 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>1500000</v>
+        <v>40000000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3106,11 +3108,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3131,7 +3133,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3144,11 +3146,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3169,7 +3171,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>3200000</v>
+        <v>2500000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3182,11 +3184,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3207,7 +3209,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>2000000</v>
+        <v>3200000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3220,11 +3222,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3245,7 +3247,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>34000000</v>
+        <v>2000000</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3258,11 +3260,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3283,7 +3285,7 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>4400000</v>
+        <v>34000000</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3296,11 +3298,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3321,7 +3323,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>5000000</v>
+        <v>4400000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3334,11 +3336,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3359,7 +3361,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>1600000</v>
+        <v>5000000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3372,11 +3374,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3397,7 +3399,7 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>900000</v>
+        <v>1600000</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3410,11 +3412,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3435,7 +3437,7 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>3000000</v>
+        <v>900000</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3448,11 +3450,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3463,10 +3465,8 @@
       <c r="E78" t="n">
         <v/>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F78" t="n">
+        <v/>
       </c>
       <c r="G78" t="n">
         <v/>
@@ -3475,10 +3475,10 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>8500000</v>
+        <v>3000000</v>
       </c>
       <c r="J78" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3488,11 +3488,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3503,8 +3503,10 @@
       <c r="E79" t="n">
         <v/>
       </c>
-      <c r="F79" t="n">
-        <v/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0369473448</t>
+        </is>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -3513,10 +3515,10 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>8386000</v>
+        <v>8500000</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="80">
@@ -3526,11 +3528,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3551,7 +3553,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>7000000</v>
+        <v>8386000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3564,11 +3566,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3579,10 +3581,8 @@
       <c r="E81" t="n">
         <v/>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F81" t="n">
+        <v/>
       </c>
       <c r="G81" t="n">
         <v/>
@@ -3591,10 +3591,10 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="J81" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3604,11 +3604,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0848708885</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3631,10 +3631,10 @@
         <v/>
       </c>
       <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>4000000</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3644,11 +3644,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3659,8 +3659,10 @@
       <c r="E83" t="n">
         <v/>
       </c>
-      <c r="F83" t="n">
-        <v/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0848708885</t>
+        </is>
       </c>
       <c r="G83" t="n">
         <v/>
@@ -3669,7 +3671,7 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>25000000</v>
+        <v>4000000</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3682,11 +3684,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3697,10 +3699,8 @@
       <c r="E84" t="n">
         <v/>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>0964945901</t>
-        </is>
+      <c r="F84" t="n">
+        <v/>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -3722,11 +3722,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0326608620</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3749,7 +3749,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>30000000</v>
+        <v>25000000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3762,11 +3762,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3789,7 +3789,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>7000000</v>
+        <v>30000000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3802,11 +3802,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3829,7 +3829,7 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>3900000</v>
+        <v>7000000</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3842,11 +3842,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3855,11 +3855,11 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0365658917</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3869,7 +3869,7 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>37000000</v>
+        <v>3900000</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3882,11 +3882,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3895,23 +3895,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>94197013583</v>
+        <v>9417002720</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G89" t="n">
         <v/>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H89" t="n">
+        <v/>
       </c>
       <c r="I89" t="n">
-        <v>5000000</v>
+        <v>37000000</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3924,11 +3922,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3937,21 +3935,23 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v/>
+        <v>94197013583</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0977825701</t>
         </is>
       </c>
       <c r="G90" t="n">
         <v/>
       </c>
-      <c r="H90" t="n">
-        <v/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
       <c r="I90" t="n">
-        <v>3700000</v>
+        <v>5000000</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -3964,11 +3964,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3979,8 +3979,10 @@
       <c r="E91" t="n">
         <v/>
       </c>
-      <c r="F91" t="n">
-        <v/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0376680568</t>
+        </is>
       </c>
       <c r="G91" t="n">
         <v/>
@@ -3989,7 +3991,7 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>2000000</v>
+        <v>3700000</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4002,11 +4004,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4027,7 +4029,7 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4040,11 +4042,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4055,10 +4057,8 @@
       <c r="E93" t="n">
         <v/>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>0387888961</t>
-        </is>
+      <c r="F93" t="n">
+        <v/>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -4067,10 +4067,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>8000000</v>
+        <v>25000000</v>
       </c>
       <c r="J93" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4080,11 +4080,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4095,8 +4095,10 @@
       <c r="E94" t="n">
         <v/>
       </c>
-      <c r="F94" t="n">
-        <v/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G94" t="n">
         <v/>
@@ -4105,10 +4107,10 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="95">
@@ -4118,11 +4120,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4143,7 +4145,7 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -4156,11 +4158,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4181,7 +4183,7 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>45000000</v>
+        <v>3000000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4194,11 +4196,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4219,7 +4221,7 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>20000000</v>
+        <v>45000000</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4232,11 +4234,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4257,7 +4259,7 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>25000000</v>
+        <v>20000000</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -4270,11 +4272,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4308,11 +4310,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4333,7 +4335,7 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4346,11 +4348,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4371,7 +4373,7 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>20000000</v>
+        <v>4000000</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -4384,11 +4386,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4409,7 +4411,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>50000000</v>
+        <v>20000000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4422,11 +4424,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4437,10 +4439,8 @@
       <c r="E103" t="n">
         <v/>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F103" t="n">
+        <v/>
       </c>
       <c r="G103" t="n">
         <v/>
@@ -4449,7 +4449,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>115000000</v>
+        <v>50000000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4462,11 +4462,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4477,8 +4477,10 @@
       <c r="E104" t="n">
         <v/>
       </c>
-      <c r="F104" t="n">
-        <v/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G104" t="n">
         <v/>
@@ -4487,7 +4489,7 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>70000000</v>
+        <v>115000000</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4500,11 +4502,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4525,7 +4527,7 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>1000000</v>
+        <v>70000000</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -4538,11 +4540,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4576,11 +4578,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4601,7 +4603,7 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4614,11 +4616,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4639,7 +4641,7 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>12000000</v>
+        <v>1500000</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4652,11 +4654,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4677,10 +4679,10 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>27700000</v>
+        <v>12000000</v>
       </c>
       <c r="J109" t="n">
-        <v>-1600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4690,11 +4692,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4715,10 +4717,10 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>13000000</v>
+        <v>27700000</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>-1600000</v>
       </c>
     </row>
     <row r="111">
@@ -4728,11 +4730,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4753,7 +4755,7 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>15000000</v>
+        <v>13000000</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4766,11 +4768,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4791,7 +4793,7 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -4804,11 +4806,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4829,7 +4831,7 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -4842,11 +4844,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4867,7 +4869,7 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4880,11 +4882,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4905,7 +4907,7 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>63000000</v>
+        <v>7000000</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4918,11 +4920,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4943,7 +4945,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>1200000</v>
+        <v>63000000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4956,11 +4958,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4981,7 +4983,7 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>2000000</v>
+        <v>1200000</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -4994,11 +4996,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5019,7 +5021,7 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>2300000</v>
+        <v>2000000</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -5032,11 +5034,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5057,7 +5059,7 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>2000000</v>
+        <v>2300000</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -5070,11 +5072,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5108,11 +5110,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5133,7 +5135,7 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -5146,11 +5148,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5171,7 +5173,7 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>5000000</v>
+        <v>15000000</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -5184,11 +5186,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5209,7 +5211,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>9100000</v>
+        <v>5000000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5222,11 +5224,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5247,7 +5249,7 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>5500000</v>
+        <v>9100000</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -5260,11 +5262,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5285,7 +5287,7 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>22000000</v>
+        <v>5500000</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5298,11 +5300,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5323,7 +5325,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>4000000</v>
+        <v>22000000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5336,11 +5338,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5361,7 +5363,7 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>110000000</v>
+        <v>4000000</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -5374,11 +5376,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5399,7 +5401,7 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>20000000</v>
+        <v>110000000</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5412,11 +5414,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5437,7 +5439,7 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>700000</v>
+        <v>20000000</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -5450,11 +5452,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5475,7 +5477,7 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>53000000</v>
+        <v>700000</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -5488,11 +5490,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5503,10 +5505,8 @@
       <c r="E131" t="n">
         <v/>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F131" t="n">
+        <v/>
       </c>
       <c r="G131" t="n">
         <v/>
@@ -5515,7 +5515,7 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>500000</v>
+        <v>53000000</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -5528,11 +5528,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5543,8 +5543,10 @@
       <c r="E132" t="n">
         <v/>
       </c>
-      <c r="F132" t="n">
-        <v/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G132" t="n">
         <v/>
@@ -5553,7 +5555,7 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>6000000</v>
+        <v>500000</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -5566,11 +5568,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5591,7 +5593,7 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>53550000</v>
+        <v>6000000</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -5604,11 +5606,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5629,7 +5631,7 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>17000000</v>
+        <v>53550000</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -5642,11 +5644,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5667,7 +5669,7 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>5400000</v>
+        <v>17000000</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -5680,11 +5682,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>C.Trinh</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5705,7 +5707,7 @@
         <v/>
       </c>
       <c r="I136" t="n">
-        <v>18000000</v>
+        <v>5400000</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -5718,11 +5720,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5743,10 +5745,10 @@
         <v/>
       </c>
       <c r="I137" t="n">
-        <v>2500000</v>
+        <v>18000000</v>
       </c>
       <c r="J137" t="n">
-        <v>1498000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5756,11 +5758,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>C.Hoành Ná</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5781,10 +5783,10 @@
         <v/>
       </c>
       <c r="I138" t="n">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>1498000</v>
       </c>
     </row>
     <row r="139">
@@ -5794,11 +5796,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>Cô Nhung</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5819,7 +5821,7 @@
         <v/>
       </c>
       <c r="I139" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -5832,34 +5834,72 @@
         </is>
       </c>
       <c r="B140" t="n">
+        <v>59</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Quan thị Hoa</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v/>
+      </c>
+      <c r="F140" t="n">
+        <v/>
+      </c>
+      <c r="G140" t="n">
+        <v/>
+      </c>
+      <c r="H140" t="n">
+        <v/>
+      </c>
+      <c r="I140" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
         <v>58</v>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Chị Mai</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v/>
-      </c>
-      <c r="F140" t="n">
-        <v/>
-      </c>
-      <c r="G140" t="n">
-        <v/>
-      </c>
-      <c r="H140" t="n">
-        <v/>
-      </c>
-      <c r="I140" t="n">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v/>
+      </c>
+      <c r="F141" t="n">
+        <v/>
+      </c>
+      <c r="G141" t="n">
+        <v/>
+      </c>
+      <c r="H141" t="n">
+        <v/>
+      </c>
+      <c r="I141" t="n">
         <v>1000000</v>
       </c>
-      <c r="J140" t="n">
+      <c r="J141" t="n">
         <v>0</v>
       </c>
     </row>
